--- a/results.xlsx
+++ b/results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
   <workbookPr date1904="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-29160" yWindow="2060" windowWidth="25600" windowHeight="16060"/>
+    <workbookView xWindow="-32500" yWindow="120" windowWidth="28340" windowHeight="19880"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="6" r:id="rId1"/>
@@ -13,6 +13,9 @@
     <sheet name="Win-Loss-Draw" sheetId="5" r:id="rId4"/>
     <sheet name="Game Count" sheetId="4" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Results!$A$1:$I$97</definedName>
+  </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -53,54 +56,6 @@
   </si>
   <si>
     <t>Pts</t>
-  </si>
-  <si>
-    <t>Wmstwn Thunderlizards 3/4 Boys (WSC)</t>
-  </si>
-  <si>
-    <t>BH Revolution 3/4 Boys (BHYSC)</t>
-  </si>
-  <si>
-    <t>Wmstwn Strikers 3/4 Boys (WSC)</t>
-  </si>
-  <si>
-    <t>Wmstwn Wildebeest 3/4 Boys (WSC)</t>
-  </si>
-  <si>
-    <t>BH Galaxy 3/4 Boys (BHYSC)</t>
-  </si>
-  <si>
-    <t>PSC Messi 3/4 Boys (PSC)</t>
-  </si>
-  <si>
-    <t>SB Gold 3/4 Boys (SB) (SBSC)</t>
-  </si>
-  <si>
-    <t>Dalton Braves 3/4 Boys (Dalton) (DCRA)</t>
-  </si>
-  <si>
-    <t>NASC Pioneers 3/4 Boys (NASC)</t>
-  </si>
-  <si>
-    <t>PSC Rooney 3/4 Boys (PSC)</t>
-  </si>
-  <si>
-    <t>Dalton Warriors 3/4 Boys (Dalton) (DCRA)</t>
-  </si>
-  <si>
-    <t>Lenox White 3/4 Boys (Lenox) (LYFC)</t>
-  </si>
-  <si>
-    <t>Lee 3/4 Boys (LSC)</t>
-  </si>
-  <si>
-    <t>Lenox Gold 3/4 Boys (Lenox) (LYFC)</t>
-  </si>
-  <si>
-    <t>Adams Thunder 3/4 Boys (ASC)</t>
-  </si>
-  <si>
-    <t>Lenox Maroon 3/4 Boys (Lenox) (LYFC)</t>
   </si>
   <si>
     <t>Team</t>
@@ -200,6 +155,54 @@
   </si>
   <si>
     <t>10/30/2016</t>
+  </si>
+  <si>
+    <t>BH Revolution 3/4 Boys</t>
+  </si>
+  <si>
+    <t>BH Galaxy 3/4 Boys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adams Thunder 3/4 Boys </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NASC Pioneers 3/4 Boys </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSC Messi 3/4 Boys </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSC Rooney 3/4 Boys </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wmstwn Strikers 3/4 Boys </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wmstwn Wildebeest 3/4 Boys </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wmstwn Thunderlizards 3/4 Boys </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SB Gold 3/4 Boys  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lenox White 3/4 Boys  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lenox Maroon 3/4 Boys  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lenox Gold 3/4 Boys  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lee 3/4 Boys </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dalton Braves 3/4 Boys  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dalton Warriors 3/4 Boys  </t>
   </si>
 </sst>
 </file>
@@ -2039,8 +2042,8 @@
   </sheetPr>
   <dimension ref="A1:IX346"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66:I73"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="20" x14ac:dyDescent="0"/>
@@ -2060,31 +2063,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="10" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I1" s="26" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -2092,10 +2095,10 @@
         <v>3008884</v>
       </c>
       <c r="B2" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="59" t="s">
         <v>43</v>
-      </c>
-      <c r="C2" s="59" t="s">
-        <v>11</v>
       </c>
       <c r="D2" s="49">
         <v>9</v>
@@ -2104,7 +2107,7 @@
         <v>5</v>
       </c>
       <c r="F2" s="59" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="G2" s="50">
         <v>1</v>
@@ -2117,10 +2120,10 @@
         <v>3008883</v>
       </c>
       <c r="B3" s="58" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="C3" s="59" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="D3" s="49">
         <v>6</v>
@@ -2129,7 +2132,7 @@
         <v>8</v>
       </c>
       <c r="F3" s="59" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="G3" s="50">
         <v>1</v>
@@ -2142,10 +2145,10 @@
         <v>3008881</v>
       </c>
       <c r="B4" s="58" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="C4" s="59" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="D4" s="49">
         <v>1</v>
@@ -2154,7 +2157,7 @@
         <v>4</v>
       </c>
       <c r="F4" s="59" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="G4" s="50">
         <v>1</v>
@@ -2167,10 +2170,10 @@
         <v>3008851</v>
       </c>
       <c r="B5" s="58" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="C5" s="59" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="D5" s="49">
         <v>0</v>
@@ -2179,7 +2182,7 @@
         <v>6</v>
       </c>
       <c r="F5" s="59" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="G5" s="50">
         <v>1</v>
@@ -2192,10 +2195,10 @@
         <v>3008852</v>
       </c>
       <c r="B6" s="58" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="C6" s="59" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="D6" s="49">
         <v>0</v>
@@ -2204,7 +2207,7 @@
         <v>3</v>
       </c>
       <c r="F6" s="60" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="G6" s="50">
         <v>1</v>
@@ -2217,10 +2220,10 @@
         <v>3008849</v>
       </c>
       <c r="B7" s="58" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="C7" s="59" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="D7" s="49">
         <v>5</v>
@@ -2229,7 +2232,7 @@
         <v>3</v>
       </c>
       <c r="F7" s="59" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="G7" s="50">
         <v>1</v>
@@ -2242,10 +2245,10 @@
         <v>3008850</v>
       </c>
       <c r="B8" s="58" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="C8" s="59" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="D8" s="49">
         <v>4</v>
@@ -2254,7 +2257,7 @@
         <v>3</v>
       </c>
       <c r="F8" s="59" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="G8" s="50">
         <v>1</v>
@@ -2267,10 +2270,10 @@
         <v>3008882</v>
       </c>
       <c r="B9" s="58" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="C9" s="59" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="D9" s="49">
         <v>2</v>
@@ -2279,7 +2282,7 @@
         <v>3</v>
       </c>
       <c r="F9" s="59" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="G9" s="50">
         <v>1</v>
@@ -2292,10 +2295,10 @@
         <v>3008848</v>
       </c>
       <c r="B10" s="52" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="C10" s="53" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="D10" s="41">
         <v>0</v>
@@ -2304,7 +2307,7 @@
         <v>3</v>
       </c>
       <c r="F10" s="53" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="G10" s="42">
         <v>2</v>
@@ -2317,10 +2320,10 @@
         <v>3008877</v>
       </c>
       <c r="B11" s="52" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="C11" s="53" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="D11" s="41">
         <v>3</v>
@@ -2329,7 +2332,7 @@
         <v>4</v>
       </c>
       <c r="F11" s="53" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="G11" s="42">
         <v>2</v>
@@ -2342,10 +2345,10 @@
         <v>3008879</v>
       </c>
       <c r="B12" s="52" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="C12" s="53" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="D12" s="41">
         <v>2</v>
@@ -2354,7 +2357,7 @@
         <v>1</v>
       </c>
       <c r="F12" s="53" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="G12" s="42">
         <v>2</v>
@@ -2367,10 +2370,10 @@
         <v>3008880</v>
       </c>
       <c r="B13" s="52" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="C13" s="53" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="D13" s="41">
         <v>5</v>
@@ -2379,7 +2382,7 @@
         <v>9</v>
       </c>
       <c r="F13" s="53" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="G13" s="42">
         <v>2</v>
@@ -2392,10 +2395,10 @@
         <v>3008846</v>
       </c>
       <c r="B14" s="52" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="C14" s="53" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="D14" s="41">
         <v>1</v>
@@ -2404,7 +2407,7 @@
         <v>2</v>
       </c>
       <c r="F14" s="53" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="G14" s="42">
         <v>2</v>
@@ -2417,10 +2420,10 @@
         <v>3008847</v>
       </c>
       <c r="B15" s="52" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="C15" s="53" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="D15" s="41">
         <v>0</v>
@@ -2429,7 +2432,7 @@
         <v>3</v>
       </c>
       <c r="F15" s="53" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="G15" s="42">
         <v>2</v>
@@ -2442,10 +2445,10 @@
         <v>3008845</v>
       </c>
       <c r="B16" s="52" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="C16" s="54" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="D16" s="55">
         <v>1</v>
@@ -2454,7 +2457,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="54" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="G16" s="56">
         <v>2</v>
@@ -2467,10 +2470,10 @@
         <v>3008878</v>
       </c>
       <c r="B17" s="52" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="C17" s="54" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="D17" s="55">
         <v>1</v>
@@ -2479,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="54" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="G17" s="56">
         <v>2</v>
@@ -2489,13 +2492,13 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="35" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="B18" s="36" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="C18" s="36" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="D18" s="37">
         <v>5</v>
@@ -2504,7 +2507,7 @@
         <v>1</v>
       </c>
       <c r="F18" s="36" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="G18" s="38">
         <v>3</v>
@@ -2518,13 +2521,13 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="35" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="B19" s="36" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="C19" s="36" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="D19" s="37">
         <v>4</v>
@@ -2533,7 +2536,7 @@
         <v>3</v>
       </c>
       <c r="F19" s="36" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="G19" s="38">
         <v>3</v>
@@ -2547,13 +2550,13 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="35" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="B20" s="36" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="C20" s="36" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="D20" s="37">
         <v>3</v>
@@ -2562,7 +2565,7 @@
         <v>1</v>
       </c>
       <c r="F20" s="36" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="G20" s="38">
         <v>3</v>
@@ -2576,13 +2579,13 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="35" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="B21" s="36" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="C21" s="36" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="D21" s="37">
         <v>1</v>
@@ -2591,7 +2594,7 @@
         <v>1</v>
       </c>
       <c r="F21" s="36" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="G21" s="38">
         <v>3</v>
@@ -2605,13 +2608,13 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="35" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="B22" s="36" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="C22" s="36" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="D22" s="37">
         <v>2</v>
@@ -2620,7 +2623,7 @@
         <v>1</v>
       </c>
       <c r="F22" s="36" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="G22" s="38">
         <v>3</v>
@@ -2634,13 +2637,13 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="35" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="B23" s="36" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="C23" s="36" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="D23" s="37">
         <v>1</v>
@@ -2649,7 +2652,7 @@
         <v>2</v>
       </c>
       <c r="F23" s="36" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="G23" s="38">
         <v>3</v>
@@ -2663,13 +2666,13 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="35" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="B24" s="36" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="C24" s="36" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="D24" s="37">
         <v>0</v>
@@ -2678,7 +2681,7 @@
         <v>3</v>
       </c>
       <c r="F24" s="36" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="G24" s="38">
         <v>3</v>
@@ -2692,13 +2695,13 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="35" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="B25" s="36" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="C25" s="36" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="D25" s="37">
         <v>3</v>
@@ -2707,7 +2710,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="36" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="G25" s="38">
         <v>3</v>
@@ -2721,13 +2724,13 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="43" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="B26" s="44" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="C26" s="44" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="D26" s="45">
         <v>3</v>
@@ -2736,7 +2739,7 @@
         <v>5</v>
       </c>
       <c r="F26" s="44" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="G26" s="46">
         <v>4</v>
@@ -2750,13 +2753,13 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="43" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="B27" s="44" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="C27" s="44" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="D27" s="45">
         <v>5</v>
@@ -2765,7 +2768,7 @@
         <v>4</v>
       </c>
       <c r="F27" s="44" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="G27" s="46">
         <v>4</v>
@@ -2779,13 +2782,13 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="43" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="B28" s="44" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="C28" s="44" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="D28" s="45">
         <v>0</v>
@@ -2794,7 +2797,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="44" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="G28" s="46">
         <v>4</v>
@@ -2808,13 +2811,13 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="43" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="B29" s="44" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="C29" s="44" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="D29" s="45">
         <v>1</v>
@@ -2823,7 +2826,7 @@
         <v>1</v>
       </c>
       <c r="F29" s="44" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="G29" s="46">
         <v>4</v>
@@ -2837,13 +2840,13 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="43" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="B30" s="44" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="C30" s="44" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="D30" s="45">
         <v>6</v>
@@ -2852,7 +2855,7 @@
         <v>7</v>
       </c>
       <c r="F30" s="44" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="G30" s="46">
         <v>4</v>
@@ -2866,13 +2869,13 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="44" t="s">
         <v>52</v>
-      </c>
-      <c r="B31" s="44" t="s">
-        <v>54</v>
-      </c>
-      <c r="C31" s="44" t="s">
-        <v>16</v>
       </c>
       <c r="D31" s="45">
         <v>7</v>
@@ -2881,7 +2884,7 @@
         <v>2</v>
       </c>
       <c r="F31" s="44" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="G31" s="46">
         <v>4</v>
@@ -2895,13 +2898,13 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="43" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="B32" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="44" t="s">
         <v>54</v>
-      </c>
-      <c r="C32" s="44" t="s">
-        <v>25</v>
       </c>
       <c r="D32" s="45">
         <v>2</v>
@@ -2910,7 +2913,7 @@
         <v>5</v>
       </c>
       <c r="F32" s="44" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="G32" s="46">
         <v>4</v>
@@ -2924,13 +2927,13 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="43" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="B33" s="44" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="C33" s="44" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="D33" s="45">
         <v>3</v>
@@ -2939,7 +2942,7 @@
         <v>3</v>
       </c>
       <c r="F33" s="44" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="G33" s="46">
         <v>4</v>
@@ -2953,13 +2956,13 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="47" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="B34" s="48" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="C34" s="48" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="D34" s="49">
         <v>5</v>
@@ -2968,7 +2971,7 @@
         <v>1</v>
       </c>
       <c r="F34" s="48" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="G34" s="50">
         <v>5</v>
@@ -2982,13 +2985,13 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="47" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="B35" s="48" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="C35" s="48" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="D35" s="49">
         <v>2</v>
@@ -2997,7 +3000,7 @@
         <v>2</v>
       </c>
       <c r="F35" s="48" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="G35" s="50">
         <v>5</v>
@@ -3011,13 +3014,13 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="47" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="B36" s="48" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="C36" s="48" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="D36" s="49">
         <v>4</v>
@@ -3026,7 +3029,7 @@
         <v>1</v>
       </c>
       <c r="F36" s="48" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="G36" s="50">
         <v>5</v>
@@ -3040,13 +3043,13 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="47" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="B37" s="48" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="C37" s="48" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="D37" s="49">
         <v>3</v>
@@ -3055,7 +3058,7 @@
         <v>2</v>
       </c>
       <c r="F37" s="48" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="G37" s="50">
         <v>5</v>
@@ -3069,13 +3072,13 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" s="48" t="s">
         <v>52</v>
-      </c>
-      <c r="B38" s="48" t="s">
-        <v>55</v>
-      </c>
-      <c r="C38" s="48" t="s">
-        <v>16</v>
       </c>
       <c r="D38" s="49">
         <v>1</v>
@@ -3084,7 +3087,7 @@
         <v>1</v>
       </c>
       <c r="F38" s="48" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="G38" s="50">
         <v>5</v>
@@ -3098,13 +3101,13 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="47" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="B39" s="48" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="C39" s="48" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="D39" s="49">
         <v>0</v>
@@ -3113,7 +3116,7 @@
         <v>1</v>
       </c>
       <c r="F39" s="48" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="G39" s="50">
         <v>5</v>
@@ -3127,13 +3130,13 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="47" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="B40" s="48" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="C40" s="48" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="D40" s="49">
         <v>1</v>
@@ -3142,7 +3145,7 @@
         <v>3</v>
       </c>
       <c r="F40" s="48" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="G40" s="50">
         <v>5</v>
@@ -3156,13 +3159,13 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="47" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="B41" s="48" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="C41" s="48" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="D41" s="49">
         <v>5</v>
@@ -3171,7 +3174,7 @@
         <v>1</v>
       </c>
       <c r="F41" s="48" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="G41" s="50">
         <v>5</v>
@@ -3185,22 +3188,22 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="E42" s="17" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="F42" s="18" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="G42" s="24">
         <v>6</v>
@@ -3214,22 +3217,22 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B43" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C43" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E43" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="F43" s="18" t="s">
         <v>52</v>
-      </c>
-      <c r="B43" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="C43" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D43" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="E43" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="F43" s="18" t="s">
-        <v>16</v>
       </c>
       <c r="G43" s="24">
         <v>6</v>
@@ -3243,22 +3246,22 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="E44" s="17" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="F44" s="18" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="G44" s="24">
         <v>6</v>
@@ -3272,22 +3275,22 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="E45" s="17" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="F45" s="18" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="G45" s="24">
         <v>6</v>
@@ -3301,22 +3304,22 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="B46" s="20" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="E46" s="17" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="F46" s="18" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="G46" s="24">
         <v>6</v>
@@ -3330,22 +3333,22 @@
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="B47" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C47" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D47" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E47" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="F47" s="18" t="s">
         <v>56</v>
-      </c>
-      <c r="C47" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D47" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="E47" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="F47" s="18" t="s">
-        <v>22</v>
       </c>
       <c r="G47" s="24">
         <v>6</v>
@@ -3359,22 +3362,22 @@
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="B48" s="20" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="E48" s="17" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="F48" s="18" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="G48" s="24">
         <v>6</v>
@@ -3388,22 +3391,22 @@
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="B49" s="20" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="C49" s="18" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="E49" s="17" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="F49" s="18" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="G49" s="24">
         <v>6</v>
@@ -3417,22 +3420,22 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="B50" s="20" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="C50" s="18" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="E50" s="17" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="F50" s="18" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="G50" s="24">
         <v>7</v>
@@ -3446,22 +3449,22 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="B51" s="20" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="C51" s="18" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="E51" s="17" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="F51" s="18" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="G51" s="24">
         <v>7</v>
@@ -3475,22 +3478,22 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="B52" s="20" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="C52" s="18" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="E52" s="17" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="F52" s="18" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="G52" s="24">
         <v>7</v>
@@ -3504,22 +3507,22 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B53" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C53" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="B53" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C53" s="18" t="s">
-        <v>16</v>
-      </c>
       <c r="D53" s="17" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="E53" s="17" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="F53" s="18" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="G53" s="24">
         <v>7</v>
@@ -3533,22 +3536,22 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="B54" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C54" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D54" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E54" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="F54" s="18" t="s">
         <v>57</v>
-      </c>
-      <c r="C54" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="D54" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="E54" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="F54" s="18" t="s">
-        <v>17</v>
       </c>
       <c r="G54" s="24">
         <v>7</v>
@@ -3562,22 +3565,22 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="B55" s="20" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="C55" s="18" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="E55" s="17" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="F55" s="18" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="G55" s="24">
         <v>7</v>
@@ -3591,22 +3594,22 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="B56" s="20" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="C56" s="18" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="E56" s="17" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="F56" s="18" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="G56" s="24">
         <v>7</v>
@@ -3620,22 +3623,22 @@
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="B57" s="20" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="C57" s="18" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="E57" s="17" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="F57" s="18" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="G57" s="24">
         <v>7</v>
@@ -3649,22 +3652,22 @@
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="B58" s="20" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="C58" s="18" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="E58" s="17" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="F58" s="18" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="G58" s="24">
         <v>8</v>
@@ -3678,22 +3681,22 @@
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="B59" s="20" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="C59" s="18" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="E59" s="17" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="F59" s="18" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="G59" s="24">
         <v>8</v>
@@ -3707,22 +3710,22 @@
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="B60" s="20" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="C60" s="18" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="E60" s="17" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="F60" s="18" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="G60" s="24">
         <v>8</v>
@@ -3736,22 +3739,22 @@
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B61" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C61" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D61" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E61" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="F61" s="18" t="s">
         <v>52</v>
-      </c>
-      <c r="B61" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="C61" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D61" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="E61" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="F61" s="18" t="s">
-        <v>16</v>
       </c>
       <c r="G61" s="24">
         <v>8</v>
@@ -3765,22 +3768,22 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="B62" s="20" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="C62" s="18" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="E62" s="17" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="F62" s="18" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="G62" s="24">
         <v>8</v>
@@ -3794,22 +3797,22 @@
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="B63" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C63" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D63" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E63" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="F63" s="18" t="s">
         <v>58</v>
-      </c>
-      <c r="C63" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D63" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="E63" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="F63" s="18" t="s">
-        <v>20</v>
       </c>
       <c r="G63" s="24">
         <v>8</v>
@@ -3823,22 +3826,22 @@
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="B64" s="20" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="C64" s="18" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="E64" s="17" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="F64" s="18" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="G64" s="24">
         <v>8</v>
@@ -3852,22 +3855,22 @@
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="B65" s="20" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="C65" s="18" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="E65" s="17" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="F65" s="18" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="G65" s="24">
         <v>8</v>
@@ -3881,162 +3884,162 @@
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" s="19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="73" spans="1:9">
       <c r="A73" s="19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="74" spans="1:9">
       <c r="A74" s="19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="75" spans="1:9">
       <c r="A75" s="19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="76" spans="1:9">
       <c r="A76" s="19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="77" spans="1:9">
       <c r="A77" s="19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="78" spans="1:9">
       <c r="A78" s="19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="79" spans="1:9">
       <c r="A79" s="19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" s="19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" s="19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" s="19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="97" spans="1:9">
       <c r="A97" s="19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -4129,7 +4132,7 @@
     </row>
     <row r="114" spans="1:9">
       <c r="A114" s="35" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="B114" s="36"/>
       <c r="C114" s="36"/>
@@ -4142,7 +4145,7 @@
     </row>
     <row r="115" spans="1:9">
       <c r="A115" s="35" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="B115" s="36"/>
       <c r="C115" s="36"/>
@@ -4155,7 +4158,7 @@
     </row>
     <row r="116" spans="1:9">
       <c r="A116" s="35" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="B116" s="36"/>
       <c r="C116" s="36"/>
@@ -4168,7 +4171,7 @@
     </row>
     <row r="117" spans="1:9">
       <c r="A117" s="35" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="B117" s="36"/>
       <c r="C117" s="36"/>
@@ -4181,7 +4184,7 @@
     </row>
     <row r="118" spans="1:9">
       <c r="A118" s="35" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="B118" s="36"/>
       <c r="C118" s="36"/>
@@ -4194,7 +4197,7 @@
     </row>
     <row r="119" spans="1:9">
       <c r="A119" s="35" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="B119" s="36"/>
       <c r="C119" s="36"/>
@@ -4207,7 +4210,7 @@
     </row>
     <row r="120" spans="1:9">
       <c r="A120" s="35" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="B120" s="36"/>
       <c r="C120" s="36"/>
@@ -4220,7 +4223,7 @@
     </row>
     <row r="121" spans="1:9">
       <c r="A121" s="35" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="B121" s="36"/>
       <c r="C121" s="36"/>
@@ -4233,7 +4236,7 @@
     </row>
     <row r="122" spans="1:9">
       <c r="A122" s="43" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="B122" s="44"/>
       <c r="C122" s="44"/>
@@ -4246,7 +4249,7 @@
     </row>
     <row r="123" spans="1:9">
       <c r="A123" s="43" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="B123" s="44"/>
       <c r="C123" s="44"/>
@@ -4259,7 +4262,7 @@
     </row>
     <row r="124" spans="1:9">
       <c r="A124" s="43" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="B124" s="44"/>
       <c r="C124" s="44"/>
@@ -4272,7 +4275,7 @@
     </row>
     <row r="125" spans="1:9">
       <c r="A125" s="43" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="B125" s="44"/>
       <c r="C125" s="44"/>
@@ -4285,7 +4288,7 @@
     </row>
     <row r="126" spans="1:9">
       <c r="A126" s="43" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="B126" s="44"/>
       <c r="C126" s="44"/>
@@ -4298,7 +4301,7 @@
     </row>
     <row r="127" spans="1:9">
       <c r="A127" s="43" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="B127" s="44"/>
       <c r="C127" s="44"/>
@@ -4311,7 +4314,7 @@
     </row>
     <row r="128" spans="1:9">
       <c r="A128" s="43" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="B128" s="44"/>
       <c r="C128" s="44"/>
@@ -4324,7 +4327,7 @@
     </row>
     <row r="129" spans="1:9">
       <c r="A129" s="43" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="B129" s="44"/>
       <c r="C129" s="44"/>
@@ -4337,442 +4340,442 @@
     </row>
     <row r="130" spans="1:9">
       <c r="A130" s="19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="131" spans="1:9">
       <c r="A131" s="19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="132" spans="1:9">
       <c r="A132" s="19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="133" spans="1:9">
       <c r="A133" s="19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="134" spans="1:9">
       <c r="A134" s="19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="135" spans="1:9">
       <c r="A135" s="19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="136" spans="1:9">
       <c r="A136" s="19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="137" spans="1:9">
       <c r="A137" s="19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="138" spans="1:9">
       <c r="A138" s="19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="139" spans="1:9">
       <c r="A139" s="19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="140" spans="1:9">
       <c r="A140" s="19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="141" spans="1:9">
       <c r="A141" s="19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="142" spans="1:9">
       <c r="A142" s="19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="143" spans="1:9">
       <c r="A143" s="19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="144" spans="1:9">
       <c r="A144" s="19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" s="19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" s="19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" s="19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" s="19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" s="19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" s="19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" s="19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" s="19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153" s="19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154" s="19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155" s="19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156" s="19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157" s="19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158" s="19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159" s="19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160" s="19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161" s="19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" s="19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163" s="19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164" s="19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165" s="19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166" s="19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167" s="19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" s="19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" s="19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170" s="19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171" s="19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172" s="19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173" s="19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174" s="19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175" s="19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176" s="19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177" s="19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178" s="19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179" s="19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180" s="19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181" s="19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182" s="19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183" s="19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184" s="19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185" s="19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186" s="19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187" s="19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188" s="19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189" s="19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190" s="19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191" s="19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192" s="19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193" s="19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194" s="19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195" s="19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196" s="19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197" s="19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198" s="19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199" s="19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200" s="19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201" s="19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210" s="19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211" s="19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212" s="19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213" s="19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214" s="19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215" s="19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216" s="19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217" s="19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218" s="19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219" s="19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220" s="19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221" s="19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222" s="19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223" s="19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224" s="19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225" s="19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="314" spans="2:9" ht="21">
@@ -5110,11 +5113,11 @@
         <v>1</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="C2" s="30">
         <f t="shared" ref="C2:C17" si="1">SUM(D2:F2)</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D2" s="33">
         <f>COUNTIF('Win-Loss-Draw'!$A$2:$A$200,B2)</f>
@@ -5122,7 +5125,7 @@
       </c>
       <c r="E2" s="34">
         <f>COUNTIF('Win-Loss-Draw'!$C$2:$C$200,B2)+COUNTIF('Win-Loss-Draw'!$D$2:$D$200,B2)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F2" s="33">
         <f>COUNTIF('Win-Loss-Draw'!$B$2:$B$200,B2)</f>
@@ -5140,7 +5143,7 @@
       </c>
       <c r="J2" s="4">
         <f t="shared" ref="J2:J17" si="3">(3*D2)+E2</f>
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="18.5" customHeight="1">
@@ -5149,11 +5152,11 @@
         <v>2</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="C3" s="30">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D3" s="33">
         <f>COUNTIF('Win-Loss-Draw'!$A$2:$A$200,B3)</f>
@@ -5161,7 +5164,7 @@
       </c>
       <c r="E3" s="34">
         <f>COUNTIF('Win-Loss-Draw'!$C$2:$C$200,B3)+COUNTIF('Win-Loss-Draw'!$D$2:$D$200,B3)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F3" s="33">
         <f>COUNTIF('Win-Loss-Draw'!$B$2:$B$200,B3)</f>
@@ -5179,7 +5182,7 @@
       </c>
       <c r="J3" s="4">
         <f t="shared" si="3"/>
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="18.5" customHeight="1">
@@ -5188,11 +5191,11 @@
         <v>3</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="C4" s="30">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D4" s="33">
         <f>COUNTIF('Win-Loss-Draw'!$A$2:$A$200,B4)</f>
@@ -5200,7 +5203,7 @@
       </c>
       <c r="E4" s="34">
         <f>COUNTIF('Win-Loss-Draw'!$C$2:$C$200,B4)+COUNTIF('Win-Loss-Draw'!$D$2:$D$200,B4)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F4" s="33">
         <f>COUNTIF('Win-Loss-Draw'!$B$2:$B$200,B4)</f>
@@ -5218,7 +5221,7 @@
       </c>
       <c r="J4" s="4">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="18.5" customHeight="1">
@@ -5227,11 +5230,11 @@
         <v>4</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="C5" s="30">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D5" s="33">
         <f>COUNTIF('Win-Loss-Draw'!$A$2:$A$200,B5)</f>
@@ -5239,7 +5242,7 @@
       </c>
       <c r="E5" s="34">
         <f>COUNTIF('Win-Loss-Draw'!$C$2:$C$200,B5)+COUNTIF('Win-Loss-Draw'!$D$2:$D$200,B5)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F5" s="33">
         <f>COUNTIF('Win-Loss-Draw'!$B$2:$B$200,B5)</f>
@@ -5257,7 +5260,7 @@
       </c>
       <c r="J5" s="4">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="18.5" customHeight="1">
@@ -5266,11 +5269,11 @@
         <v>5</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="C6" s="30">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D6" s="33">
         <f>COUNTIF('Win-Loss-Draw'!$A$2:$A$200,B6)</f>
@@ -5278,7 +5281,7 @@
       </c>
       <c r="E6" s="34">
         <f>COUNTIF('Win-Loss-Draw'!$C$2:$C$200,B6)+COUNTIF('Win-Loss-Draw'!$D$2:$D$200,B6)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F6" s="33">
         <f>COUNTIF('Win-Loss-Draw'!$B$2:$B$200,B6)</f>
@@ -5296,7 +5299,7 @@
       </c>
       <c r="J6" s="4">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="18.5" customHeight="1">
@@ -5305,11 +5308,11 @@
         <v>6</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="C7" s="30">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D7" s="33">
         <f>COUNTIF('Win-Loss-Draw'!$A$2:$A$200,B7)</f>
@@ -5317,7 +5320,7 @@
       </c>
       <c r="E7" s="34">
         <f>COUNTIF('Win-Loss-Draw'!$C$2:$C$200,B7)+COUNTIF('Win-Loss-Draw'!$D$2:$D$200,B7)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F7" s="33">
         <f>COUNTIF('Win-Loss-Draw'!$B$2:$B$200,B7)</f>
@@ -5335,7 +5338,7 @@
       </c>
       <c r="J7" s="4">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="18.5" customHeight="1">
@@ -5344,11 +5347,11 @@
         <v>7</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="C8" s="30">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D8" s="33">
         <f>COUNTIF('Win-Loss-Draw'!$A$2:$A$200,B8)</f>
@@ -5356,7 +5359,7 @@
       </c>
       <c r="E8" s="34">
         <f>COUNTIF('Win-Loss-Draw'!$C$2:$C$200,B8)+COUNTIF('Win-Loss-Draw'!$D$2:$D$200,B8)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F8" s="33">
         <f>COUNTIF('Win-Loss-Draw'!$B$2:$B$200,B8)</f>
@@ -5374,7 +5377,7 @@
       </c>
       <c r="J8" s="4">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="18.5" customHeight="1">
@@ -5383,11 +5386,11 @@
         <v>8</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="C9" s="30">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D9" s="33">
         <f>COUNTIF('Win-Loss-Draw'!$A$2:$A$200,B9)</f>
@@ -5395,7 +5398,7 @@
       </c>
       <c r="E9" s="34">
         <f>COUNTIF('Win-Loss-Draw'!$C$2:$C$200,B9)+COUNTIF('Win-Loss-Draw'!$D$2:$D$200,B9)</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F9" s="33">
         <f>COUNTIF('Win-Loss-Draw'!$B$2:$B$200,B9)</f>
@@ -5413,7 +5416,7 @@
       </c>
       <c r="J9" s="4">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="18.5" customHeight="1">
@@ -5422,11 +5425,11 @@
         <v>9</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="C10" s="30">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D10" s="33">
         <f>COUNTIF('Win-Loss-Draw'!$A$2:$A$200,B10)</f>
@@ -5434,7 +5437,7 @@
       </c>
       <c r="E10" s="34">
         <f>COUNTIF('Win-Loss-Draw'!$C$2:$C$200,B10)+COUNTIF('Win-Loss-Draw'!$D$2:$D$200,B10)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F10" s="33">
         <f>COUNTIF('Win-Loss-Draw'!$B$2:$B$200,B10)</f>
@@ -5452,7 +5455,7 @@
       </c>
       <c r="J10" s="4">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="18.5" customHeight="1">
@@ -5461,11 +5464,11 @@
         <v>10</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="C11" s="30">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D11" s="33">
         <f>COUNTIF('Win-Loss-Draw'!$A$2:$A$200,B11)</f>
@@ -5473,7 +5476,7 @@
       </c>
       <c r="E11" s="34">
         <f>COUNTIF('Win-Loss-Draw'!$C$2:$C$200,B11)+COUNTIF('Win-Loss-Draw'!$D$2:$D$200,B11)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F11" s="33">
         <f>COUNTIF('Win-Loss-Draw'!$B$2:$B$200,B11)</f>
@@ -5491,7 +5494,7 @@
       </c>
       <c r="J11" s="4">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="18.5" customHeight="1">
@@ -5500,11 +5503,11 @@
         <v>11</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="C12" s="30">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D12" s="33">
         <f>COUNTIF('Win-Loss-Draw'!$A$2:$A$200,B12)</f>
@@ -5512,7 +5515,7 @@
       </c>
       <c r="E12" s="34">
         <f>COUNTIF('Win-Loss-Draw'!$C$2:$C$200,B12)+COUNTIF('Win-Loss-Draw'!$D$2:$D$200,B12)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F12" s="33">
         <f>COUNTIF('Win-Loss-Draw'!$B$2:$B$200,B12)</f>
@@ -5530,7 +5533,7 @@
       </c>
       <c r="J12" s="4">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="18.5" customHeight="1">
@@ -5539,11 +5542,11 @@
         <v>12</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="C13" s="30">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D13" s="33">
         <f>COUNTIF('Win-Loss-Draw'!$A$2:$A$200,B13)</f>
@@ -5551,7 +5554,7 @@
       </c>
       <c r="E13" s="34">
         <f>COUNTIF('Win-Loss-Draw'!$C$2:$C$200,B13)+COUNTIF('Win-Loss-Draw'!$D$2:$D$200,B13)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F13" s="33">
         <f>COUNTIF('Win-Loss-Draw'!$B$2:$B$200,B13)</f>
@@ -5569,7 +5572,7 @@
       </c>
       <c r="J13" s="4">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="18.5" customHeight="1">
@@ -5578,11 +5581,11 @@
         <v>13</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="C14" s="30">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D14" s="33">
         <f>COUNTIF('Win-Loss-Draw'!$A$2:$A$200,B14)</f>
@@ -5590,7 +5593,7 @@
       </c>
       <c r="E14" s="34">
         <f>COUNTIF('Win-Loss-Draw'!$C$2:$C$200,B14)+COUNTIF('Win-Loss-Draw'!$D$2:$D$200,B14)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F14" s="33">
         <f>COUNTIF('Win-Loss-Draw'!$B$2:$B$200,B14)</f>
@@ -5608,7 +5611,7 @@
       </c>
       <c r="J14" s="4">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="18.5" customHeight="1">
@@ -5617,11 +5620,11 @@
         <v>14</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="C15" s="30">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D15" s="33">
         <f>COUNTIF('Win-Loss-Draw'!$A$2:$A$200,B15)</f>
@@ -5629,7 +5632,7 @@
       </c>
       <c r="E15" s="34">
         <f>COUNTIF('Win-Loss-Draw'!$C$2:$C$200,B15)+COUNTIF('Win-Loss-Draw'!$D$2:$D$200,B15)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F15" s="33">
         <f>COUNTIF('Win-Loss-Draw'!$B$2:$B$200,B15)</f>
@@ -5647,7 +5650,7 @@
       </c>
       <c r="J15" s="4">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="18.5" customHeight="1">
@@ -5656,11 +5659,11 @@
         <v>15</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="C16" s="30">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D16" s="33">
         <f>COUNTIF('Win-Loss-Draw'!$A$2:$A$200,B16)</f>
@@ -5668,7 +5671,7 @@
       </c>
       <c r="E16" s="34">
         <f>COUNTIF('Win-Loss-Draw'!$C$2:$C$200,B16)+COUNTIF('Win-Loss-Draw'!$D$2:$D$200,B16)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F16" s="33">
         <f>COUNTIF('Win-Loss-Draw'!$B$2:$B$200,B16)</f>
@@ -5686,7 +5689,7 @@
       </c>
       <c r="J16" s="4">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="18.5" customHeight="1">
@@ -5695,11 +5698,11 @@
         <v>16</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="C17" s="30">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D17" s="33">
         <f>COUNTIF('Win-Loss-Draw'!$A$2:$A$200,B17)</f>
@@ -5707,7 +5710,7 @@
       </c>
       <c r="E17" s="34">
         <f>COUNTIF('Win-Loss-Draw'!$C$2:$C$200,B17)+COUNTIF('Win-Loss-Draw'!$D$2:$D$200,B17)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F17" s="33">
         <f>COUNTIF('Win-Loss-Draw'!$B$2:$B$200,B17)</f>
@@ -5725,7 +5728,7 @@
       </c>
       <c r="J17" s="4">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -5772,30 +5775,30 @@
   <sheetData>
     <row r="1" spans="1:7" ht="14.75" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.75" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B2" s="7">
         <f>SUMIF(Results!$C2:$C192,$A2,Results!$D2:$D192)</f>
@@ -5824,7 +5827,7 @@
     </row>
     <row r="3" spans="1:7" ht="14.75" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="B3" s="7">
         <f>SUMIF(Results!$C3:$C193,$A3,Results!$D3:$D193)</f>
@@ -5853,7 +5856,7 @@
     </row>
     <row r="4" spans="1:7" ht="14.75" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="B4" s="7">
         <f>SUMIF(Results!$C4:$C194,$A4,Results!$D4:$D194)</f>
@@ -5882,7 +5885,7 @@
     </row>
     <row r="5" spans="1:7" ht="14.75" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="B5" s="7">
         <f>SUMIF(Results!$C5:$C195,$A5,Results!$D5:$D195)</f>
@@ -5911,7 +5914,7 @@
     </row>
     <row r="6" spans="1:7" ht="14.75" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="B6" s="7">
         <f>SUMIF(Results!$C6:$C196,$A6,Results!$D6:$D196)</f>
@@ -5940,7 +5943,7 @@
     </row>
     <row r="7" spans="1:7" ht="14.75" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="B7" s="7">
         <f>SUMIF(Results!$C7:$C197,$A7,Results!$D7:$D197)</f>
@@ -5969,7 +5972,7 @@
     </row>
     <row r="8" spans="1:7" ht="14.75" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="B8" s="7">
         <f>SUMIF(Results!$C8:$C198,$A8,Results!$D8:$D198)</f>
@@ -5998,7 +6001,7 @@
     </row>
     <row r="9" spans="1:7" ht="14.75" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="B9" s="7">
         <f>SUMIF(Results!$C9:$C199,$A9,Results!$D9:$D199)</f>
@@ -6027,7 +6030,7 @@
     </row>
     <row r="10" spans="1:7" ht="14.75" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="B10" s="7">
         <f>SUMIF(Results!$C10:$C200,$A10,Results!$D10:$D200)</f>
@@ -6056,7 +6059,7 @@
     </row>
     <row r="11" spans="1:7" ht="14.75" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="B11" s="7">
         <f>SUMIF(Results!$C11:$C201,$A11,Results!$D11:$D201)</f>
@@ -6085,7 +6088,7 @@
     </row>
     <row r="12" spans="1:7" ht="14.75" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="B12" s="7">
         <f>SUMIF(Results!$C12:$C202,$A12,Results!$D12:$D202)</f>
@@ -6114,7 +6117,7 @@
     </row>
     <row r="13" spans="1:7" ht="14.75" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="B13" s="7">
         <f>SUMIF(Results!$C13:$C203,$A13,Results!$D13:$D203)</f>
@@ -6143,7 +6146,7 @@
     </row>
     <row r="14" spans="1:7" ht="14.75" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="B14" s="7">
         <f>SUMIF(Results!$C14:$C204,$A14,Results!$D14:$D204)</f>
@@ -6172,7 +6175,7 @@
     </row>
     <row r="15" spans="1:7" ht="14.75" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="B15" s="7">
         <f>SUMIF(Results!$C15:$C205,$A15,Results!$D15:$D205)</f>
@@ -6201,7 +6204,7 @@
     </row>
     <row r="16" spans="1:7" ht="14.75" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="B16" s="7">
         <f>SUMIF(Results!$C16:$C206,$A16,Results!$D16:$D206)</f>
@@ -6230,7 +6233,7 @@
     </row>
     <row r="17" spans="1:7" ht="14.75" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="B17" s="7">
         <f>SUMIF(Results!$C17:$C207,$A17,Results!$D17:$D207)</f>
@@ -6295,26 +6298,26 @@
   <sheetData>
     <row r="1" spans="1:4" ht="14.75" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="14.75" customHeight="1">
       <c r="A2" s="3" t="str">
         <f>IF(ISBLANK(Results!$D2),"",IF(Results!$D2&gt;Results!$E2,Results!$C2,IF(Results!$D2=Results!$E2,"DRAW",Results!$F2)))</f>
-        <v>BH Revolution 3/4 Boys (BHYSC)</v>
+        <v>BH Revolution 3/4 Boys</v>
       </c>
       <c r="B2" s="3" t="str">
         <f>IF(ISBLANK(Results!$D2),"",IF(Results!$D2&lt;Results!$E2,Results!$C2,IF(Results!$D2=Results!$E2,"DRAW",Results!$F2)))</f>
-        <v>Lenox White 3/4 Boys (Lenox) (LYFC)</v>
+        <v xml:space="preserve">Lenox White 3/4 Boys  </v>
       </c>
       <c r="C2" s="3" t="str">
         <f>IF(ISBLANK(Results!$D2),"",IF(Results!$D2=Results!$E2,Results!$C2,""))</f>
@@ -6328,11 +6331,11 @@
     <row r="3" spans="1:4" ht="14.75" customHeight="1">
       <c r="A3" s="3" t="str">
         <f>IF(ISBLANK(Results!$D3),"",IF(Results!$D3&gt;Results!$E3,Results!$C3,IF(Results!$D3=Results!$E3,"DRAW",Results!$F3)))</f>
-        <v>BH Galaxy 3/4 Boys (BHYSC)</v>
+        <v>BH Galaxy 3/4 Boys</v>
       </c>
       <c r="B3" s="3" t="str">
         <f>IF(ISBLANK(Results!$D3),"",IF(Results!$D3&lt;Results!$E3,Results!$C3,IF(Results!$D3=Results!$E3,"DRAW",Results!$F3)))</f>
-        <v>Adams Thunder 3/4 Boys (ASC)</v>
+        <v xml:space="preserve">Adams Thunder 3/4 Boys </v>
       </c>
       <c r="C3" s="3" t="str">
         <f>IF(ISBLANK(Results!$D3),"",IF(Results!$D3=Results!$E3,Results!$C3,""))</f>
@@ -6346,11 +6349,11 @@
     <row r="4" spans="1:4" ht="14.75" customHeight="1">
       <c r="A4" s="3" t="str">
         <f>IF(ISBLANK(Results!$D4),"",IF(Results!$D4&gt;Results!$E4,Results!$C4,IF(Results!$D4=Results!$E4,"DRAW",Results!$F4)))</f>
-        <v>Wmstwn Strikers 3/4 Boys (WSC)</v>
+        <v xml:space="preserve">Wmstwn Strikers 3/4 Boys </v>
       </c>
       <c r="B4" s="3" t="str">
         <f>IF(ISBLANK(Results!$D4),"",IF(Results!$D4&lt;Results!$E4,Results!$C4,IF(Results!$D4=Results!$E4,"DRAW",Results!$F4)))</f>
-        <v>Lenox Maroon 3/4 Boys (Lenox) (LYFC)</v>
+        <v xml:space="preserve">Lenox Maroon 3/4 Boys  </v>
       </c>
       <c r="C4" s="3" t="str">
         <f>IF(ISBLANK(Results!$D4),"",IF(Results!$D4=Results!$E4,Results!$C4,""))</f>
@@ -6364,11 +6367,11 @@
     <row r="5" spans="1:4" ht="14.75" customHeight="1">
       <c r="A5" s="3" t="str">
         <f>IF(ISBLANK(Results!$D5),"",IF(Results!$D5&gt;Results!$E5,Results!$C5,IF(Results!$D5=Results!$E5,"DRAW",Results!$F5)))</f>
-        <v>Wmstwn Wildebeest 3/4 Boys (WSC)</v>
+        <v xml:space="preserve">Wmstwn Wildebeest 3/4 Boys </v>
       </c>
       <c r="B5" s="3" t="str">
         <f>IF(ISBLANK(Results!$D5),"",IF(Results!$D5&lt;Results!$E5,Results!$C5,IF(Results!$D5=Results!$E5,"DRAW",Results!$F5)))</f>
-        <v>Lenox Gold 3/4 Boys (Lenox) (LYFC)</v>
+        <v xml:space="preserve">Lenox Gold 3/4 Boys  </v>
       </c>
       <c r="C5" s="3" t="str">
         <f>IF(ISBLANK(Results!$D5),"",IF(Results!$D5=Results!$E5,Results!$C5,""))</f>
@@ -6382,11 +6385,11 @@
     <row r="6" spans="1:4" ht="14.75" customHeight="1">
       <c r="A6" s="3" t="str">
         <f>IF(ISBLANK(Results!$D6),"",IF(Results!$D6&gt;Results!$E6,Results!$C6,IF(Results!$D6=Results!$E6,"DRAW",Results!$F6)))</f>
-        <v>PSC Messi 3/4 Boys (PSC)</v>
+        <v xml:space="preserve">PSC Messi 3/4 Boys </v>
       </c>
       <c r="B6" s="3" t="str">
         <f>IF(ISBLANK(Results!$D6),"",IF(Results!$D6&lt;Results!$E6,Results!$C6,IF(Results!$D6=Results!$E6,"DRAW",Results!$F6)))</f>
-        <v>Dalton Braves 3/4 Boys (Dalton) (DCRA)</v>
+        <v xml:space="preserve">Dalton Braves 3/4 Boys  </v>
       </c>
       <c r="C6" s="3" t="str">
         <f>IF(ISBLANK(Results!$D6),"",IF(Results!$D6=Results!$E6,Results!$C6,""))</f>
@@ -6400,11 +6403,11 @@
     <row r="7" spans="1:4" ht="14.75" customHeight="1">
       <c r="A7" s="3" t="str">
         <f>IF(ISBLANK(Results!$D7),"",IF(Results!$D7&gt;Results!$E7,Results!$C7,IF(Results!$D7=Results!$E7,"DRAW",Results!$F7)))</f>
-        <v>Wmstwn Thunderlizards 3/4 Boys (WSC)</v>
+        <v xml:space="preserve">Wmstwn Thunderlizards 3/4 Boys </v>
       </c>
       <c r="B7" s="3" t="str">
         <f>IF(ISBLANK(Results!$D7),"",IF(Results!$D7&lt;Results!$E7,Results!$C7,IF(Results!$D7=Results!$E7,"DRAW",Results!$F7)))</f>
-        <v>Dalton Warriors 3/4 Boys (Dalton) (DCRA)</v>
+        <v xml:space="preserve">Dalton Warriors 3/4 Boys  </v>
       </c>
       <c r="C7" s="3" t="str">
         <f>IF(ISBLANK(Results!$D7),"",IF(Results!$D7=Results!$E7,Results!$C7,""))</f>
@@ -6418,11 +6421,11 @@
     <row r="8" spans="1:4" ht="14.75" customHeight="1">
       <c r="A8" s="3" t="str">
         <f>IF(ISBLANK(Results!$D8),"",IF(Results!$D8&gt;Results!$E8,Results!$C8,IF(Results!$D8=Results!$E8,"DRAW",Results!$F8)))</f>
-        <v>NASC Pioneers 3/4 Boys (NASC)</v>
+        <v xml:space="preserve">NASC Pioneers 3/4 Boys </v>
       </c>
       <c r="B8" s="3" t="str">
         <f>IF(ISBLANK(Results!$D8),"",IF(Results!$D8&lt;Results!$E8,Results!$C8,IF(Results!$D8=Results!$E8,"DRAW",Results!$F8)))</f>
-        <v>SB Gold 3/4 Boys (SB) (SBSC)</v>
+        <v xml:space="preserve">SB Gold 3/4 Boys  </v>
       </c>
       <c r="C8" s="3" t="str">
         <f>IF(ISBLANK(Results!$D8),"",IF(Results!$D8=Results!$E8,Results!$C8,""))</f>
@@ -6436,11 +6439,11 @@
     <row r="9" spans="1:4" ht="14.75" customHeight="1">
       <c r="A9" s="3" t="str">
         <f>IF(ISBLANK(Results!$D9),"",IF(Results!$D9&gt;Results!$E9,Results!$C9,IF(Results!$D9=Results!$E9,"DRAW",Results!$F9)))</f>
-        <v>PSC Rooney 3/4 Boys (PSC)</v>
+        <v xml:space="preserve">PSC Rooney 3/4 Boys </v>
       </c>
       <c r="B9" s="3" t="str">
         <f>IF(ISBLANK(Results!$D9),"",IF(Results!$D9&lt;Results!$E9,Results!$C9,IF(Results!$D9=Results!$E9,"DRAW",Results!$F9)))</f>
-        <v>Lee 3/4 Boys (LSC)</v>
+        <v xml:space="preserve">Lee 3/4 Boys </v>
       </c>
       <c r="C9" s="3" t="str">
         <f>IF(ISBLANK(Results!$D9),"",IF(Results!$D9=Results!$E9,Results!$C9,""))</f>
@@ -6454,11 +6457,11 @@
     <row r="10" spans="1:4" ht="14.75" customHeight="1">
       <c r="A10" s="3" t="str">
         <f>IF(ISBLANK(Results!$D10),"",IF(Results!$D10&gt;Results!$E10,Results!$C10,IF(Results!$D10=Results!$E10,"DRAW",Results!$F10)))</f>
-        <v>Dalton Braves 3/4 Boys (Dalton) (DCRA)</v>
+        <v xml:space="preserve">Dalton Braves 3/4 Boys  </v>
       </c>
       <c r="B10" s="3" t="str">
         <f>IF(ISBLANK(Results!$D10),"",IF(Results!$D10&lt;Results!$E10,Results!$C10,IF(Results!$D10=Results!$E10,"DRAW",Results!$F10)))</f>
-        <v>Lenox Gold 3/4 Boys (Lenox) (LYFC)</v>
+        <v xml:space="preserve">Lenox Gold 3/4 Boys  </v>
       </c>
       <c r="C10" s="3" t="str">
         <f>IF(ISBLANK(Results!$D10),"",IF(Results!$D10=Results!$E10,Results!$C10,""))</f>
@@ -6472,11 +6475,11 @@
     <row r="11" spans="1:4" ht="14.75" customHeight="1">
       <c r="A11" s="3" t="str">
         <f>IF(ISBLANK(Results!$D11),"",IF(Results!$D11&gt;Results!$E11,Results!$C11,IF(Results!$D11=Results!$E11,"DRAW",Results!$F11)))</f>
-        <v>Wmstwn Strikers 3/4 Boys (WSC)</v>
+        <v xml:space="preserve">Wmstwn Strikers 3/4 Boys </v>
       </c>
       <c r="B11" s="3" t="str">
         <f>IF(ISBLANK(Results!$D11),"",IF(Results!$D11&lt;Results!$E11,Results!$C11,IF(Results!$D11=Results!$E11,"DRAW",Results!$F11)))</f>
-        <v>PSC Rooney 3/4 Boys (PSC)</v>
+        <v xml:space="preserve">PSC Rooney 3/4 Boys </v>
       </c>
       <c r="C11" s="3" t="str">
         <f>IF(ISBLANK(Results!$D11),"",IF(Results!$D11=Results!$E11,Results!$C11,""))</f>
@@ -6490,11 +6493,11 @@
     <row r="12" spans="1:4" ht="14.75" customHeight="1">
       <c r="A12" s="3" t="str">
         <f>IF(ISBLANK(Results!$D12),"",IF(Results!$D12&gt;Results!$E12,Results!$C12,IF(Results!$D12=Results!$E12,"DRAW",Results!$F12)))</f>
-        <v>Lenox White 3/4 Boys (Lenox) (LYFC)</v>
+        <v xml:space="preserve">Lenox White 3/4 Boys  </v>
       </c>
       <c r="B12" s="3" t="str">
         <f>IF(ISBLANK(Results!$D12),"",IF(Results!$D12&lt;Results!$E12,Results!$C12,IF(Results!$D12=Results!$E12,"DRAW",Results!$F12)))</f>
-        <v>Lee 3/4 Boys (LSC)</v>
+        <v xml:space="preserve">Lee 3/4 Boys </v>
       </c>
       <c r="C12" s="3" t="str">
         <f>IF(ISBLANK(Results!$D12),"",IF(Results!$D12=Results!$E12,Results!$C12,""))</f>
@@ -6508,11 +6511,11 @@
     <row r="13" spans="1:4" ht="14.75" customHeight="1">
       <c r="A13" s="3" t="str">
         <f>IF(ISBLANK(Results!$D13),"",IF(Results!$D13&gt;Results!$E13,Results!$C13,IF(Results!$D13=Results!$E13,"DRAW",Results!$F13)))</f>
-        <v>BH Revolution 3/4 Boys (BHYSC)</v>
+        <v>BH Revolution 3/4 Boys</v>
       </c>
       <c r="B13" s="3" t="str">
         <f>IF(ISBLANK(Results!$D13),"",IF(Results!$D13&lt;Results!$E13,Results!$C13,IF(Results!$D13=Results!$E13,"DRAW",Results!$F13)))</f>
-        <v>Adams Thunder 3/4 Boys (ASC)</v>
+        <v xml:space="preserve">Adams Thunder 3/4 Boys </v>
       </c>
       <c r="C13" s="3" t="str">
         <f>IF(ISBLANK(Results!$D13),"",IF(Results!$D13=Results!$E13,Results!$C13,""))</f>
@@ -6526,11 +6529,11 @@
     <row r="14" spans="1:4" ht="14.75" customHeight="1">
       <c r="A14" s="3" t="str">
         <f>IF(ISBLANK(Results!$D14),"",IF(Results!$D14&gt;Results!$E14,Results!$C14,IF(Results!$D14=Results!$E14,"DRAW",Results!$F14)))</f>
-        <v>NASC Pioneers 3/4 Boys (NASC)</v>
+        <v xml:space="preserve">NASC Pioneers 3/4 Boys </v>
       </c>
       <c r="B14" s="3" t="str">
         <f>IF(ISBLANK(Results!$D14),"",IF(Results!$D14&lt;Results!$E14,Results!$C14,IF(Results!$D14=Results!$E14,"DRAW",Results!$F14)))</f>
-        <v>Wmstwn Wildebeest 3/4 Boys (WSC)</v>
+        <v xml:space="preserve">Wmstwn Wildebeest 3/4 Boys </v>
       </c>
       <c r="C14" s="3" t="str">
         <f>IF(ISBLANK(Results!$D14),"",IF(Results!$D14=Results!$E14,Results!$C14,""))</f>
@@ -6544,11 +6547,11 @@
     <row r="15" spans="1:4" ht="14.75" customHeight="1">
       <c r="A15" s="3" t="str">
         <f>IF(ISBLANK(Results!$D15),"",IF(Results!$D15&gt;Results!$E15,Results!$C15,IF(Results!$D15=Results!$E15,"DRAW",Results!$F15)))</f>
-        <v>Wmstwn Thunderlizards 3/4 Boys (WSC)</v>
+        <v xml:space="preserve">Wmstwn Thunderlizards 3/4 Boys </v>
       </c>
       <c r="B15" s="3" t="str">
         <f>IF(ISBLANK(Results!$D15),"",IF(Results!$D15&lt;Results!$E15,Results!$C15,IF(Results!$D15=Results!$E15,"DRAW",Results!$F15)))</f>
-        <v>Dalton Warriors 3/4 Boys (Dalton) (DCRA)</v>
+        <v xml:space="preserve">Dalton Warriors 3/4 Boys  </v>
       </c>
       <c r="C15" s="3" t="str">
         <f>IF(ISBLANK(Results!$D15),"",IF(Results!$D15=Results!$E15,Results!$C15,""))</f>
@@ -6562,11 +6565,11 @@
     <row r="16" spans="1:4" ht="14.75" customHeight="1">
       <c r="A16" s="3" t="str">
         <f>IF(ISBLANK(Results!$D16),"",IF(Results!$D16&gt;Results!$E16,Results!$C16,IF(Results!$D16=Results!$E16,"DRAW",Results!$F16)))</f>
-        <v>SB Gold 3/4 Boys (SB) (SBSC)</v>
+        <v xml:space="preserve">SB Gold 3/4 Boys  </v>
       </c>
       <c r="B16" s="3" t="str">
         <f>IF(ISBLANK(Results!$D16),"",IF(Results!$D16&lt;Results!$E16,Results!$C16,IF(Results!$D16=Results!$E16,"DRAW",Results!$F16)))</f>
-        <v>PSC Messi 3/4 Boys (PSC)</v>
+        <v xml:space="preserve">PSC Messi 3/4 Boys </v>
       </c>
       <c r="C16" s="3" t="str">
         <f>IF(ISBLANK(Results!$D16),"",IF(Results!$D16=Results!$E16,Results!$C16,""))</f>
@@ -6580,11 +6583,11 @@
     <row r="17" spans="1:4" ht="14.75" customHeight="1">
       <c r="A17" s="3" t="str">
         <f>IF(ISBLANK(Results!$D17),"",IF(Results!$D17&gt;Results!$E17,Results!$C17,IF(Results!$D17=Results!$E17,"DRAW",Results!$F17)))</f>
-        <v>BH Galaxy 3/4 Boys (BHYSC)</v>
+        <v>BH Galaxy 3/4 Boys</v>
       </c>
       <c r="B17" s="3" t="str">
         <f>IF(ISBLANK(Results!$D17),"",IF(Results!$D17&lt;Results!$E17,Results!$C17,IF(Results!$D17=Results!$E17,"DRAW",Results!$F17)))</f>
-        <v>Lenox Maroon 3/4 Boys (Lenox) (LYFC)</v>
+        <v xml:space="preserve">Lenox Maroon 3/4 Boys  </v>
       </c>
       <c r="C17" s="3" t="str">
         <f>IF(ISBLANK(Results!$D17),"",IF(Results!$D17=Results!$E17,Results!$C17,""))</f>
@@ -6598,11 +6601,11 @@
     <row r="18" spans="1:4" ht="14.75" customHeight="1">
       <c r="A18" s="3" t="str">
         <f>IF(ISBLANK(Results!$D18),"",IF(Results!$D18&gt;Results!$E18,Results!$C18,IF(Results!$D18=Results!$E18,"DRAW",Results!$F18)))</f>
-        <v>BH Revolution 3/4 Boys (BHYSC)</v>
+        <v>BH Revolution 3/4 Boys</v>
       </c>
       <c r="B18" s="3" t="str">
         <f>IF(ISBLANK(Results!$D18),"",IF(Results!$D18&lt;Results!$E18,Results!$C18,IF(Results!$D18=Results!$E18,"DRAW",Results!$F18)))</f>
-        <v>Wmstwn Wildebeest 3/4 Boys (WSC)</v>
+        <v xml:space="preserve">Wmstwn Wildebeest 3/4 Boys </v>
       </c>
       <c r="C18" s="3" t="str">
         <f>IF(ISBLANK(Results!$D18),"",IF(Results!$D18=Results!$E18,Results!$C18,""))</f>
@@ -6616,11 +6619,11 @@
     <row r="19" spans="1:4" ht="14.75" customHeight="1">
       <c r="A19" s="3" t="str">
         <f>IF(ISBLANK(Results!$D19),"",IF(Results!$D19&gt;Results!$E19,Results!$C19,IF(Results!$D19=Results!$E19,"DRAW",Results!$F19)))</f>
-        <v>BH Galaxy 3/4 Boys (BHYSC)</v>
+        <v>BH Galaxy 3/4 Boys</v>
       </c>
       <c r="B19" s="3" t="str">
         <f>IF(ISBLANK(Results!$D19),"",IF(Results!$D19&lt;Results!$E19,Results!$C19,IF(Results!$D19=Results!$E19,"DRAW",Results!$F19)))</f>
-        <v>NASC Pioneers 3/4 Boys (NASC)</v>
+        <v xml:space="preserve">NASC Pioneers 3/4 Boys </v>
       </c>
       <c r="C19" s="3" t="str">
         <f>IF(ISBLANK(Results!$D19),"",IF(Results!$D19=Results!$E19,Results!$C19,""))</f>
@@ -6634,11 +6637,11 @@
     <row r="20" spans="1:4" ht="14.75" customHeight="1">
       <c r="A20" s="3" t="str">
         <f>IF(ISBLANK(Results!$D20),"",IF(Results!$D20&gt;Results!$E20,Results!$C20,IF(Results!$D20=Results!$E20,"DRAW",Results!$F20)))</f>
-        <v>Wmstwn Strikers 3/4 Boys (WSC)</v>
+        <v xml:space="preserve">Wmstwn Strikers 3/4 Boys </v>
       </c>
       <c r="B20" s="3" t="str">
         <f>IF(ISBLANK(Results!$D20),"",IF(Results!$D20&lt;Results!$E20,Results!$C20,IF(Results!$D20=Results!$E20,"DRAW",Results!$F20)))</f>
-        <v>SB Gold 3/4 Boys (SB) (SBSC)</v>
+        <v xml:space="preserve">SB Gold 3/4 Boys  </v>
       </c>
       <c r="C20" s="3" t="str">
         <f>IF(ISBLANK(Results!$D20),"",IF(Results!$D20=Results!$E20,Results!$C20,""))</f>
@@ -6660,21 +6663,21 @@
       </c>
       <c r="C21" s="3" t="str">
         <f>IF(ISBLANK(Results!$D21),"",IF(Results!$D21=Results!$E21,Results!$C21,""))</f>
-        <v>Wmstwn Thunderlizards 3/4 Boys (WSC)</v>
+        <v xml:space="preserve">Wmstwn Thunderlizards 3/4 Boys </v>
       </c>
       <c r="D21" s="3" t="str">
         <f>IF(ISBLANK(Results!$D21),"",IF(Results!$D21=Results!$E21,Results!F21,""))</f>
-        <v>Lenox White 3/4 Boys (Lenox) (LYFC)</v>
+        <v xml:space="preserve">Lenox White 3/4 Boys  </v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="14.75" customHeight="1">
       <c r="A22" s="3" t="str">
         <f>IF(ISBLANK(Results!$D22),"",IF(Results!$D22&gt;Results!$E22,Results!$C22,IF(Results!$D22=Results!$E22,"DRAW",Results!$F22)))</f>
-        <v>PSC Messi 3/4 Boys (PSC)</v>
+        <v xml:space="preserve">PSC Messi 3/4 Boys </v>
       </c>
       <c r="B22" s="3" t="str">
         <f>IF(ISBLANK(Results!$D22),"",IF(Results!$D22&lt;Results!$E22,Results!$C22,IF(Results!$D22=Results!$E22,"DRAW",Results!$F22)))</f>
-        <v>PSC Rooney 3/4 Boys (PSC)</v>
+        <v xml:space="preserve">PSC Rooney 3/4 Boys </v>
       </c>
       <c r="C22" s="3" t="str">
         <f>IF(ISBLANK(Results!$D22),"",IF(Results!$D22=Results!$E22,Results!$C22,""))</f>
@@ -6688,11 +6691,11 @@
     <row r="23" spans="1:4" ht="14.75" customHeight="1">
       <c r="A23" s="3" t="str">
         <f>IF(ISBLANK(Results!$D23),"",IF(Results!$D23&gt;Results!$E23,Results!$C23,IF(Results!$D23=Results!$E23,"DRAW",Results!$F23)))</f>
-        <v>Lenox Maroon 3/4 Boys (Lenox) (LYFC)</v>
+        <v xml:space="preserve">Lenox Maroon 3/4 Boys  </v>
       </c>
       <c r="B23" s="3" t="str">
         <f>IF(ISBLANK(Results!$D23),"",IF(Results!$D23&lt;Results!$E23,Results!$C23,IF(Results!$D23=Results!$E23,"DRAW",Results!$F23)))</f>
-        <v>Dalton Braves 3/4 Boys (Dalton) (DCRA)</v>
+        <v xml:space="preserve">Dalton Braves 3/4 Boys  </v>
       </c>
       <c r="C23" s="3" t="str">
         <f>IF(ISBLANK(Results!$D23),"",IF(Results!$D23=Results!$E23,Results!$C23,""))</f>
@@ -6706,11 +6709,11 @@
     <row r="24" spans="1:4" ht="14.75" customHeight="1">
       <c r="A24" s="3" t="str">
         <f>IF(ISBLANK(Results!$D24),"",IF(Results!$D24&gt;Results!$E24,Results!$C24,IF(Results!$D24=Results!$E24,"DRAW",Results!$F24)))</f>
-        <v>Dalton Warriors 3/4 Boys (Dalton) (DCRA)</v>
+        <v xml:space="preserve">Dalton Warriors 3/4 Boys  </v>
       </c>
       <c r="B24" s="3" t="str">
         <f>IF(ISBLANK(Results!$D24),"",IF(Results!$D24&lt;Results!$E24,Results!$C24,IF(Results!$D24=Results!$E24,"DRAW",Results!$F24)))</f>
-        <v>Lee 3/4 Boys (LSC)</v>
+        <v xml:space="preserve">Lee 3/4 Boys </v>
       </c>
       <c r="C24" s="3" t="str">
         <f>IF(ISBLANK(Results!$D24),"",IF(Results!$D24=Results!$E24,Results!$C24,""))</f>
@@ -6724,11 +6727,11 @@
     <row r="25" spans="1:4" ht="14.75" customHeight="1">
       <c r="A25" s="3" t="str">
         <f>IF(ISBLANK(Results!$D25),"",IF(Results!$D25&gt;Results!$E25,Results!$C25,IF(Results!$D25=Results!$E25,"DRAW",Results!$F25)))</f>
-        <v>Lenox Gold 3/4 Boys (Lenox) (LYFC)</v>
+        <v xml:space="preserve">Lenox Gold 3/4 Boys  </v>
       </c>
       <c r="B25" s="3" t="str">
         <f>IF(ISBLANK(Results!$D25),"",IF(Results!$D25&lt;Results!$E25,Results!$C25,IF(Results!$D25=Results!$E25,"DRAW",Results!$F25)))</f>
-        <v>Adams Thunder 3/4 Boys (ASC)</v>
+        <v xml:space="preserve">Adams Thunder 3/4 Boys </v>
       </c>
       <c r="C25" s="3" t="str">
         <f>IF(ISBLANK(Results!$D25),"",IF(Results!$D25=Results!$E25,Results!$C25,""))</f>
@@ -6742,11 +6745,11 @@
     <row r="26" spans="1:4" ht="14.75" customHeight="1">
       <c r="A26" s="3" t="str">
         <f>IF(ISBLANK(Results!$D26),"",IF(Results!$D26&gt;Results!$E26,Results!$C26,IF(Results!$D26=Results!$E26,"DRAW",Results!$F26)))</f>
-        <v>BH Revolution 3/4 Boys (BHYSC)</v>
+        <v>BH Revolution 3/4 Boys</v>
       </c>
       <c r="B26" s="3" t="str">
         <f>IF(ISBLANK(Results!$D26),"",IF(Results!$D26&lt;Results!$E26,Results!$C26,IF(Results!$D26=Results!$E26,"DRAW",Results!$F26)))</f>
-        <v>Wmstwn Strikers 3/4 Boys (WSC)</v>
+        <v xml:space="preserve">Wmstwn Strikers 3/4 Boys </v>
       </c>
       <c r="C26" s="3" t="str">
         <f>IF(ISBLANK(Results!$D26),"",IF(Results!$D26=Results!$E26,Results!$C26,""))</f>
@@ -6760,11 +6763,11 @@
     <row r="27" spans="1:4" ht="14.75" customHeight="1">
       <c r="A27" s="3" t="str">
         <f>IF(ISBLANK(Results!$D27),"",IF(Results!$D27&gt;Results!$E27,Results!$C27,IF(Results!$D27=Results!$E27,"DRAW",Results!$F27)))</f>
-        <v>BH Galaxy 3/4 Boys (BHYSC)</v>
+        <v>BH Galaxy 3/4 Boys</v>
       </c>
       <c r="B27" s="3" t="str">
         <f>IF(ISBLANK(Results!$D27),"",IF(Results!$D27&lt;Results!$E27,Results!$C27,IF(Results!$D27=Results!$E27,"DRAW",Results!$F27)))</f>
-        <v>Wmstwn Thunderlizards 3/4 Boys (WSC)</v>
+        <v xml:space="preserve">Wmstwn Thunderlizards 3/4 Boys </v>
       </c>
       <c r="C27" s="3" t="str">
         <f>IF(ISBLANK(Results!$D27),"",IF(Results!$D27=Results!$E27,Results!$C27,""))</f>
@@ -6786,11 +6789,11 @@
       </c>
       <c r="C28" s="3" t="str">
         <f>IF(ISBLANK(Results!$D28),"",IF(Results!$D28=Results!$E28,Results!$C28,""))</f>
-        <v>PSC Messi 3/4 Boys (PSC)</v>
+        <v xml:space="preserve">PSC Messi 3/4 Boys </v>
       </c>
       <c r="D28" s="3" t="str">
         <f>IF(ISBLANK(Results!$D28),"",IF(Results!$D28=Results!$E28,Results!F28,""))</f>
-        <v>NASC Pioneers 3/4 Boys (NASC)</v>
+        <v xml:space="preserve">NASC Pioneers 3/4 Boys </v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="14.75" customHeight="1">
@@ -6804,21 +6807,21 @@
       </c>
       <c r="C29" s="3" t="str">
         <f>IF(ISBLANK(Results!$D29),"",IF(Results!$D29=Results!$E29,Results!$C29,""))</f>
-        <v>Lenox White 3/4 Boys (Lenox) (LYFC)</v>
+        <v xml:space="preserve">Lenox White 3/4 Boys  </v>
       </c>
       <c r="D29" s="3" t="str">
         <f>IF(ISBLANK(Results!$D29),"",IF(Results!$D29=Results!$E29,Results!F29,""))</f>
-        <v>Wmstwn Wildebeest 3/4 Boys (WSC)</v>
+        <v xml:space="preserve">Wmstwn Wildebeest 3/4 Boys </v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="14.75" customHeight="1">
       <c r="A30" s="3" t="str">
         <f>IF(ISBLANK(Results!$D30),"",IF(Results!$D30&gt;Results!$E30,Results!$C30,IF(Results!$D30=Results!$E30,"DRAW",Results!$F30)))</f>
-        <v>Dalton Braves 3/4 Boys (Dalton) (DCRA)</v>
+        <v xml:space="preserve">Dalton Braves 3/4 Boys  </v>
       </c>
       <c r="B30" s="3" t="str">
         <f>IF(ISBLANK(Results!$D30),"",IF(Results!$D30&lt;Results!$E30,Results!$C30,IF(Results!$D30=Results!$E30,"DRAW",Results!$F30)))</f>
-        <v>PSC Rooney 3/4 Boys (PSC)</v>
+        <v xml:space="preserve">PSC Rooney 3/4 Boys </v>
       </c>
       <c r="C30" s="3" t="str">
         <f>IF(ISBLANK(Results!$D30),"",IF(Results!$D30=Results!$E30,Results!$C30,""))</f>
@@ -6832,11 +6835,11 @@
     <row r="31" spans="1:4" ht="14.75" customHeight="1">
       <c r="A31" s="3" t="str">
         <f>IF(ISBLANK(Results!$D31),"",IF(Results!$D31&gt;Results!$E31,Results!$C31,IF(Results!$D31=Results!$E31,"DRAW",Results!$F31)))</f>
-        <v>SB Gold 3/4 Boys (SB) (SBSC)</v>
+        <v xml:space="preserve">SB Gold 3/4 Boys  </v>
       </c>
       <c r="B31" s="3" t="str">
         <f>IF(ISBLANK(Results!$D31),"",IF(Results!$D31&lt;Results!$E31,Results!$C31,IF(Results!$D31=Results!$E31,"DRAW",Results!$F31)))</f>
-        <v>Dalton Warriors 3/4 Boys (Dalton) (DCRA)</v>
+        <v xml:space="preserve">Dalton Warriors 3/4 Boys  </v>
       </c>
       <c r="C31" s="3" t="str">
         <f>IF(ISBLANK(Results!$D31),"",IF(Results!$D31=Results!$E31,Results!$C31,""))</f>
@@ -6850,11 +6853,11 @@
     <row r="32" spans="1:4" ht="14.75" customHeight="1">
       <c r="A32" s="3" t="str">
         <f>IF(ISBLANK(Results!$D32),"",IF(Results!$D32&gt;Results!$E32,Results!$C32,IF(Results!$D32=Results!$E32,"DRAW",Results!$F32)))</f>
-        <v>Lenox Gold 3/4 Boys (Lenox) (LYFC)</v>
+        <v xml:space="preserve">Lenox Gold 3/4 Boys  </v>
       </c>
       <c r="B32" s="3" t="str">
         <f>IF(ISBLANK(Results!$D32),"",IF(Results!$D32&lt;Results!$E32,Results!$C32,IF(Results!$D32=Results!$E32,"DRAW",Results!$F32)))</f>
-        <v>Lenox Maroon 3/4 Boys (Lenox) (LYFC)</v>
+        <v xml:space="preserve">Lenox Maroon 3/4 Boys  </v>
       </c>
       <c r="C32" s="3" t="str">
         <f>IF(ISBLANK(Results!$D32),"",IF(Results!$D32=Results!$E32,Results!$C32,""))</f>
@@ -6876,21 +6879,21 @@
       </c>
       <c r="C33" s="3" t="str">
         <f>IF(ISBLANK(Results!$D33),"",IF(Results!$D33=Results!$E33,Results!$C33,""))</f>
-        <v>Lee 3/4 Boys (LSC)</v>
+        <v xml:space="preserve">Lee 3/4 Boys </v>
       </c>
       <c r="D33" s="3" t="str">
         <f>IF(ISBLANK(Results!$D33),"",IF(Results!$D33=Results!$E33,Results!F33,""))</f>
-        <v>Adams Thunder 3/4 Boys (ASC)</v>
+        <v xml:space="preserve">Adams Thunder 3/4 Boys </v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="14.75" customHeight="1">
       <c r="A34" s="3" t="str">
         <f>IF(ISBLANK(Results!$D34),"",IF(Results!$D34&gt;Results!$E34,Results!$C34,IF(Results!$D34=Results!$E34,"DRAW",Results!$F34)))</f>
-        <v>BH Revolution 3/4 Boys (BHYSC)</v>
+        <v>BH Revolution 3/4 Boys</v>
       </c>
       <c r="B34" s="3" t="str">
         <f>IF(ISBLANK(Results!$D34),"",IF(Results!$D34&lt;Results!$E34,Results!$C34,IF(Results!$D34=Results!$E34,"DRAW",Results!$F34)))</f>
-        <v>Wmstwn Thunderlizards 3/4 Boys (WSC)</v>
+        <v xml:space="preserve">Wmstwn Thunderlizards 3/4 Boys </v>
       </c>
       <c r="C34" s="3" t="str">
         <f>IF(ISBLANK(Results!$D34),"",IF(Results!$D34=Results!$E34,Results!$C34,""))</f>
@@ -6912,21 +6915,21 @@
       </c>
       <c r="C35" s="3" t="str">
         <f>IF(ISBLANK(Results!$D35),"",IF(Results!$D35=Results!$E35,Results!$C35,""))</f>
-        <v>Wmstwn Strikers 3/4 Boys (WSC)</v>
+        <v xml:space="preserve">Wmstwn Strikers 3/4 Boys </v>
       </c>
       <c r="D35" s="3" t="str">
         <f>IF(ISBLANK(Results!$D35),"",IF(Results!$D35=Results!$E35,Results!F35,""))</f>
-        <v>BH Galaxy 3/4 Boys (BHYSC)</v>
+        <v>BH Galaxy 3/4 Boys</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="14.75" customHeight="1">
       <c r="A36" s="3" t="str">
         <f>IF(ISBLANK(Results!$D36),"",IF(Results!$D36&gt;Results!$E36,Results!$C36,IF(Results!$D36=Results!$E36,"DRAW",Results!$F36)))</f>
-        <v>PSC Messi 3/4 Boys (PSC)</v>
+        <v xml:space="preserve">PSC Messi 3/4 Boys </v>
       </c>
       <c r="B36" s="3" t="str">
         <f>IF(ISBLANK(Results!$D36),"",IF(Results!$D36&lt;Results!$E36,Results!$C36,IF(Results!$D36=Results!$E36,"DRAW",Results!$F36)))</f>
-        <v>Lenox Gold 3/4 Boys (Lenox) (LYFC)</v>
+        <v xml:space="preserve">Lenox Gold 3/4 Boys  </v>
       </c>
       <c r="C36" s="3" t="str">
         <f>IF(ISBLANK(Results!$D36),"",IF(Results!$D36=Results!$E36,Results!$C36,""))</f>
@@ -6940,11 +6943,11 @@
     <row r="37" spans="1:4" ht="14.75" customHeight="1">
       <c r="A37" s="3" t="str">
         <f>IF(ISBLANK(Results!$D37),"",IF(Results!$D37&gt;Results!$E37,Results!$C37,IF(Results!$D37=Results!$E37,"DRAW",Results!$F37)))</f>
-        <v>NASC Pioneers 3/4 Boys (NASC)</v>
+        <v xml:space="preserve">NASC Pioneers 3/4 Boys </v>
       </c>
       <c r="B37" s="3" t="str">
         <f>IF(ISBLANK(Results!$D37),"",IF(Results!$D37&lt;Results!$E37,Results!$C37,IF(Results!$D37=Results!$E37,"DRAW",Results!$F37)))</f>
-        <v>Dalton Braves 3/4 Boys (Dalton) (DCRA)</v>
+        <v xml:space="preserve">Dalton Braves 3/4 Boys  </v>
       </c>
       <c r="C37" s="3" t="str">
         <f>IF(ISBLANK(Results!$D37),"",IF(Results!$D37=Results!$E37,Results!$C37,""))</f>
@@ -6966,21 +6969,21 @@
       </c>
       <c r="C38" s="3" t="str">
         <f>IF(ISBLANK(Results!$D38),"",IF(Results!$D38=Results!$E38,Results!$C38,""))</f>
-        <v>SB Gold 3/4 Boys (SB) (SBSC)</v>
+        <v xml:space="preserve">SB Gold 3/4 Boys  </v>
       </c>
       <c r="D38" s="3" t="str">
         <f>IF(ISBLANK(Results!$D38),"",IF(Results!$D38=Results!$E38,Results!F38,""))</f>
-        <v>Lenox White 3/4 Boys (Lenox) (LYFC)</v>
+        <v xml:space="preserve">Lenox White 3/4 Boys  </v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="14.75" customHeight="1">
       <c r="A39" s="3" t="str">
         <f>IF(ISBLANK(Results!$D39),"",IF(Results!$D39&gt;Results!$E39,Results!$C39,IF(Results!$D39=Results!$E39,"DRAW",Results!$F39)))</f>
-        <v>PSC Rooney 3/4 Boys (PSC)</v>
+        <v xml:space="preserve">PSC Rooney 3/4 Boys </v>
       </c>
       <c r="B39" s="3" t="str">
         <f>IF(ISBLANK(Results!$D39),"",IF(Results!$D39&lt;Results!$E39,Results!$C39,IF(Results!$D39=Results!$E39,"DRAW",Results!$F39)))</f>
-        <v>Wmstwn Wildebeest 3/4 Boys (WSC)</v>
+        <v xml:space="preserve">Wmstwn Wildebeest 3/4 Boys </v>
       </c>
       <c r="C39" s="3" t="str">
         <f>IF(ISBLANK(Results!$D39),"",IF(Results!$D39=Results!$E39,Results!$C39,""))</f>
@@ -6994,11 +6997,11 @@
     <row r="40" spans="1:4" ht="14.75" customHeight="1">
       <c r="A40" s="3" t="str">
         <f>IF(ISBLANK(Results!$D40),"",IF(Results!$D40&gt;Results!$E40,Results!$C40,IF(Results!$D40=Results!$E40,"DRAW",Results!$F40)))</f>
-        <v>Lee 3/4 Boys (LSC)</v>
+        <v xml:space="preserve">Lee 3/4 Boys </v>
       </c>
       <c r="B40" s="3" t="str">
         <f>IF(ISBLANK(Results!$D40),"",IF(Results!$D40&lt;Results!$E40,Results!$C40,IF(Results!$D40=Results!$E40,"DRAW",Results!$F40)))</f>
-        <v>Lenox Maroon 3/4 Boys (Lenox) (LYFC)</v>
+        <v xml:space="preserve">Lenox Maroon 3/4 Boys  </v>
       </c>
       <c r="C40" s="3" t="str">
         <f>IF(ISBLANK(Results!$D40),"",IF(Results!$D40=Results!$E40,Results!$C40,""))</f>
@@ -7012,11 +7015,11 @@
     <row r="41" spans="1:4" ht="14.75" customHeight="1">
       <c r="A41" s="3" t="str">
         <f>IF(ISBLANK(Results!$D41),"",IF(Results!$D41&gt;Results!$E41,Results!$C41,IF(Results!$D41=Results!$E41,"DRAW",Results!$F41)))</f>
-        <v>Dalton Warriors 3/4 Boys (Dalton) (DCRA)</v>
+        <v xml:space="preserve">Dalton Warriors 3/4 Boys  </v>
       </c>
       <c r="B41" s="3" t="str">
         <f>IF(ISBLANK(Results!$D41),"",IF(Results!$D41&lt;Results!$E41,Results!$C41,IF(Results!$D41=Results!$E41,"DRAW",Results!$F41)))</f>
-        <v>Adams Thunder 3/4 Boys (ASC)</v>
+        <v xml:space="preserve">Adams Thunder 3/4 Boys </v>
       </c>
       <c r="C41" s="3" t="str">
         <f>IF(ISBLANK(Results!$D41),"",IF(Results!$D41=Results!$E41,Results!$C41,""))</f>
@@ -7030,577 +7033,577 @@
     <row r="42" spans="1:4" ht="14.75" customHeight="1">
       <c r="A42" s="3" t="str">
         <f>IF(ISBLANK(Results!$D42),"",IF(Results!$D42&gt;Results!$E42,Results!$C42,IF(Results!$D42=Results!$E42,"DRAW",Results!$F42)))</f>
-        <v/>
+        <v>DRAW</v>
       </c>
       <c r="B42" s="3" t="str">
         <f>IF(ISBLANK(Results!$D42),"",IF(Results!$D42&lt;Results!$E42,Results!$C42,IF(Results!$D42=Results!$E42,"DRAW",Results!$F42)))</f>
-        <v/>
+        <v>DRAW</v>
       </c>
       <c r="C42" s="3" t="str">
         <f>IF(ISBLANK(Results!$D42),"",IF(Results!$D42=Results!$E42,Results!$C42,""))</f>
-        <v/>
+        <v>BH Revolution 3/4 Boys</v>
       </c>
       <c r="D42" s="3" t="str">
         <f>IF(ISBLANK(Results!$D42),"",IF(Results!$D42=Results!$E42,Results!F42,""))</f>
-        <v/>
+        <v xml:space="preserve">PSC Messi 3/4 Boys </v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="14.75" customHeight="1">
       <c r="A43" s="3" t="str">
         <f>IF(ISBLANK(Results!$D43),"",IF(Results!$D43&gt;Results!$E43,Results!$C43,IF(Results!$D43=Results!$E43,"DRAW",Results!$F43)))</f>
-        <v/>
+        <v>DRAW</v>
       </c>
       <c r="B43" s="3" t="str">
         <f>IF(ISBLANK(Results!$D43),"",IF(Results!$D43&lt;Results!$E43,Results!$C43,IF(Results!$D43=Results!$E43,"DRAW",Results!$F43)))</f>
-        <v/>
+        <v>DRAW</v>
       </c>
       <c r="C43" s="3" t="str">
         <f>IF(ISBLANK(Results!$D43),"",IF(Results!$D43=Results!$E43,Results!$C43,""))</f>
-        <v/>
+        <v>BH Galaxy 3/4 Boys</v>
       </c>
       <c r="D43" s="3" t="str">
         <f>IF(ISBLANK(Results!$D43),"",IF(Results!$D43=Results!$E43,Results!F43,""))</f>
-        <v/>
+        <v xml:space="preserve">SB Gold 3/4 Boys  </v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="14.75" customHeight="1">
       <c r="A44" s="3" t="str">
         <f>IF(ISBLANK(Results!$D44),"",IF(Results!$D44&gt;Results!$E44,Results!$C44,IF(Results!$D44=Results!$E44,"DRAW",Results!$F44)))</f>
-        <v/>
+        <v>DRAW</v>
       </c>
       <c r="B44" s="3" t="str">
         <f>IF(ISBLANK(Results!$D44),"",IF(Results!$D44&lt;Results!$E44,Results!$C44,IF(Results!$D44=Results!$E44,"DRAW",Results!$F44)))</f>
-        <v/>
+        <v>DRAW</v>
       </c>
       <c r="C44" s="3" t="str">
         <f>IF(ISBLANK(Results!$D44),"",IF(Results!$D44=Results!$E44,Results!$C44,""))</f>
-        <v/>
+        <v xml:space="preserve">NASC Pioneers 3/4 Boys </v>
       </c>
       <c r="D44" s="3" t="str">
         <f>IF(ISBLANK(Results!$D44),"",IF(Results!$D44=Results!$E44,Results!F44,""))</f>
-        <v/>
+        <v xml:space="preserve">Wmstwn Strikers 3/4 Boys </v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="14.75" customHeight="1">
       <c r="A45" s="3" t="str">
         <f>IF(ISBLANK(Results!$D45),"",IF(Results!$D45&gt;Results!$E45,Results!$C45,IF(Results!$D45=Results!$E45,"DRAW",Results!$F45)))</f>
-        <v/>
+        <v>DRAW</v>
       </c>
       <c r="B45" s="3" t="str">
         <f>IF(ISBLANK(Results!$D45),"",IF(Results!$D45&lt;Results!$E45,Results!$C45,IF(Results!$D45=Results!$E45,"DRAW",Results!$F45)))</f>
-        <v/>
+        <v>DRAW</v>
       </c>
       <c r="C45" s="3" t="str">
         <f>IF(ISBLANK(Results!$D45),"",IF(Results!$D45=Results!$E45,Results!$C45,""))</f>
-        <v/>
+        <v xml:space="preserve">Wmstwn Thunderlizards 3/4 Boys </v>
       </c>
       <c r="D45" s="3" t="str">
         <f>IF(ISBLANK(Results!$D45),"",IF(Results!$D45=Results!$E45,Results!F45,""))</f>
-        <v/>
+        <v xml:space="preserve">Lenox Gold 3/4 Boys  </v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="14.75" customHeight="1">
       <c r="A46" s="3" t="str">
         <f>IF(ISBLANK(Results!$D46),"",IF(Results!$D46&gt;Results!$E46,Results!$C46,IF(Results!$D46=Results!$E46,"DRAW",Results!$F46)))</f>
-        <v/>
+        <v>DRAW</v>
       </c>
       <c r="B46" s="3" t="str">
         <f>IF(ISBLANK(Results!$D46),"",IF(Results!$D46&lt;Results!$E46,Results!$C46,IF(Results!$D46=Results!$E46,"DRAW",Results!$F46)))</f>
-        <v/>
+        <v>DRAW</v>
       </c>
       <c r="C46" s="3" t="str">
         <f>IF(ISBLANK(Results!$D46),"",IF(Results!$D46=Results!$E46,Results!$C46,""))</f>
-        <v/>
+        <v xml:space="preserve">Lenox White 3/4 Boys  </v>
       </c>
       <c r="D46" s="3" t="str">
         <f>IF(ISBLANK(Results!$D46),"",IF(Results!$D46=Results!$E46,Results!F46,""))</f>
-        <v/>
+        <v xml:space="preserve">PSC Rooney 3/4 Boys </v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="14.75" customHeight="1">
       <c r="A47" s="3" t="str">
         <f>IF(ISBLANK(Results!$D47),"",IF(Results!$D47&gt;Results!$E47,Results!$C47,IF(Results!$D47=Results!$E47,"DRAW",Results!$F47)))</f>
-        <v/>
+        <v>DRAW</v>
       </c>
       <c r="B47" s="3" t="str">
         <f>IF(ISBLANK(Results!$D47),"",IF(Results!$D47&lt;Results!$E47,Results!$C47,IF(Results!$D47=Results!$E47,"DRAW",Results!$F47)))</f>
-        <v/>
+        <v>DRAW</v>
       </c>
       <c r="C47" s="3" t="str">
         <f>IF(ISBLANK(Results!$D47),"",IF(Results!$D47=Results!$E47,Results!$C47,""))</f>
-        <v/>
+        <v xml:space="preserve">Dalton Braves 3/4 Boys  </v>
       </c>
       <c r="D47" s="3" t="str">
         <f>IF(ISBLANK(Results!$D47),"",IF(Results!$D47=Results!$E47,Results!F47,""))</f>
-        <v/>
+        <v xml:space="preserve">Lee 3/4 Boys </v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="14.75" customHeight="1">
       <c r="A48" s="3" t="str">
         <f>IF(ISBLANK(Results!$D48),"",IF(Results!$D48&gt;Results!$E48,Results!$C48,IF(Results!$D48=Results!$E48,"DRAW",Results!$F48)))</f>
-        <v/>
+        <v>DRAW</v>
       </c>
       <c r="B48" s="3" t="str">
         <f>IF(ISBLANK(Results!$D48),"",IF(Results!$D48&lt;Results!$E48,Results!$C48,IF(Results!$D48=Results!$E48,"DRAW",Results!$F48)))</f>
-        <v/>
+        <v>DRAW</v>
       </c>
       <c r="C48" s="3" t="str">
         <f>IF(ISBLANK(Results!$D48),"",IF(Results!$D48=Results!$E48,Results!$C48,""))</f>
-        <v/>
+        <v xml:space="preserve">Dalton Warriors 3/4 Boys  </v>
       </c>
       <c r="D48" s="3" t="str">
         <f>IF(ISBLANK(Results!$D48),"",IF(Results!$D48=Results!$E48,Results!F48,""))</f>
-        <v/>
+        <v xml:space="preserve">Lenox Maroon 3/4 Boys  </v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="14.75" customHeight="1">
       <c r="A49" s="3" t="str">
         <f>IF(ISBLANK(Results!$D49),"",IF(Results!$D49&gt;Results!$E49,Results!$C49,IF(Results!$D49=Results!$E49,"DRAW",Results!$F49)))</f>
-        <v/>
+        <v>DRAW</v>
       </c>
       <c r="B49" s="3" t="str">
         <f>IF(ISBLANK(Results!$D49),"",IF(Results!$D49&lt;Results!$E49,Results!$C49,IF(Results!$D49=Results!$E49,"DRAW",Results!$F49)))</f>
-        <v/>
+        <v>DRAW</v>
       </c>
       <c r="C49" s="3" t="str">
         <f>IF(ISBLANK(Results!$D49),"",IF(Results!$D49=Results!$E49,Results!$C49,""))</f>
-        <v/>
+        <v xml:space="preserve">Adams Thunder 3/4 Boys </v>
       </c>
       <c r="D49" s="3" t="str">
         <f>IF(ISBLANK(Results!$D49),"",IF(Results!$D49=Results!$E49,Results!F49,""))</f>
-        <v/>
+        <v xml:space="preserve">Wmstwn Wildebeest 3/4 Boys </v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="14" customHeight="1">
       <c r="A50" s="3" t="str">
         <f>IF(ISBLANK(Results!$D50),"",IF(Results!$D50&gt;Results!$E50,Results!$C50,IF(Results!$D50=Results!$E50,"DRAW",Results!$F50)))</f>
-        <v/>
+        <v>DRAW</v>
       </c>
       <c r="B50" s="3" t="str">
         <f>IF(ISBLANK(Results!$D50),"",IF(Results!$D50&lt;Results!$E50,Results!$C50,IF(Results!$D50=Results!$E50,"DRAW",Results!$F50)))</f>
-        <v/>
+        <v>DRAW</v>
       </c>
       <c r="C50" s="3" t="str">
         <f>IF(ISBLANK(Results!$D50),"",IF(Results!$D50=Results!$E50,Results!$C50,""))</f>
-        <v/>
+        <v>BH Revolution 3/4 Boys</v>
       </c>
       <c r="D50" s="3" t="str">
         <f>IF(ISBLANK(Results!$D50),"",IF(Results!$D50=Results!$E50,Results!F50,""))</f>
-        <v/>
+        <v>BH Galaxy 3/4 Boys</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="14" customHeight="1">
       <c r="A51" s="3" t="str">
         <f>IF(ISBLANK(Results!$D51),"",IF(Results!$D51&gt;Results!$E51,Results!$C51,IF(Results!$D51=Results!$E51,"DRAW",Results!$F51)))</f>
-        <v/>
+        <v>DRAW</v>
       </c>
       <c r="B51" s="3" t="str">
         <f>IF(ISBLANK(Results!$D51),"",IF(Results!$D51&lt;Results!$E51,Results!$C51,IF(Results!$D51=Results!$E51,"DRAW",Results!$F51)))</f>
-        <v/>
+        <v>DRAW</v>
       </c>
       <c r="C51" s="3" t="str">
         <f>IF(ISBLANK(Results!$D51),"",IF(Results!$D51=Results!$E51,Results!$C51,""))</f>
-        <v/>
+        <v xml:space="preserve">PSC Messi 3/4 Boys </v>
       </c>
       <c r="D51" s="3" t="str">
         <f>IF(ISBLANK(Results!$D51),"",IF(Results!$D51=Results!$E51,Results!F51,""))</f>
-        <v/>
+        <v xml:space="preserve">Wmstwn Strikers 3/4 Boys </v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="14" customHeight="1">
       <c r="A52" s="3" t="str">
         <f>IF(ISBLANK(Results!$D52),"",IF(Results!$D52&gt;Results!$E52,Results!$C52,IF(Results!$D52=Results!$E52,"DRAW",Results!$F52)))</f>
-        <v/>
+        <v>DRAW</v>
       </c>
       <c r="B52" s="3" t="str">
         <f>IF(ISBLANK(Results!$D52),"",IF(Results!$D52&lt;Results!$E52,Results!$C52,IF(Results!$D52=Results!$E52,"DRAW",Results!$F52)))</f>
-        <v/>
+        <v>DRAW</v>
       </c>
       <c r="C52" s="3" t="str">
         <f>IF(ISBLANK(Results!$D52),"",IF(Results!$D52=Results!$E52,Results!$C52,""))</f>
-        <v/>
+        <v xml:space="preserve">NASC Pioneers 3/4 Boys </v>
       </c>
       <c r="D52" s="3" t="str">
         <f>IF(ISBLANK(Results!$D52),"",IF(Results!$D52=Results!$E52,Results!F52,""))</f>
-        <v/>
+        <v xml:space="preserve">Wmstwn Thunderlizards 3/4 Boys </v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="14" customHeight="1">
       <c r="A53" s="3" t="str">
         <f>IF(ISBLANK(Results!$D53),"",IF(Results!$D53&gt;Results!$E53,Results!$C53,IF(Results!$D53=Results!$E53,"DRAW",Results!$F53)))</f>
-        <v/>
+        <v>DRAW</v>
       </c>
       <c r="B53" s="3" t="str">
         <f>IF(ISBLANK(Results!$D53),"",IF(Results!$D53&lt;Results!$E53,Results!$C53,IF(Results!$D53=Results!$E53,"DRAW",Results!$F53)))</f>
-        <v/>
+        <v>DRAW</v>
       </c>
       <c r="C53" s="3" t="str">
         <f>IF(ISBLANK(Results!$D53),"",IF(Results!$D53=Results!$E53,Results!$C53,""))</f>
-        <v/>
+        <v xml:space="preserve">SB Gold 3/4 Boys  </v>
       </c>
       <c r="D53" s="3" t="str">
         <f>IF(ISBLANK(Results!$D53),"",IF(Results!$D53=Results!$E53,Results!F53,""))</f>
-        <v/>
+        <v xml:space="preserve">Lenox Gold 3/4 Boys  </v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="14" customHeight="1">
       <c r="A54" s="3" t="str">
         <f>IF(ISBLANK(Results!$D54),"",IF(Results!$D54&gt;Results!$E54,Results!$C54,IF(Results!$D54=Results!$E54,"DRAW",Results!$F54)))</f>
-        <v/>
+        <v>DRAW</v>
       </c>
       <c r="B54" s="3" t="str">
         <f>IF(ISBLANK(Results!$D54),"",IF(Results!$D54&lt;Results!$E54,Results!$C54,IF(Results!$D54=Results!$E54,"DRAW",Results!$F54)))</f>
-        <v/>
+        <v>DRAW</v>
       </c>
       <c r="C54" s="3" t="str">
         <f>IF(ISBLANK(Results!$D54),"",IF(Results!$D54=Results!$E54,Results!$C54,""))</f>
-        <v/>
+        <v xml:space="preserve">Lenox White 3/4 Boys  </v>
       </c>
       <c r="D54" s="3" t="str">
         <f>IF(ISBLANK(Results!$D54),"",IF(Results!$D54=Results!$E54,Results!F54,""))</f>
-        <v/>
+        <v xml:space="preserve">Dalton Braves 3/4 Boys  </v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="14" customHeight="1">
       <c r="A55" s="3" t="str">
         <f>IF(ISBLANK(Results!$D55),"",IF(Results!$D55&gt;Results!$E55,Results!$C55,IF(Results!$D55=Results!$E55,"DRAW",Results!$F55)))</f>
-        <v/>
+        <v>DRAW</v>
       </c>
       <c r="B55" s="3" t="str">
         <f>IF(ISBLANK(Results!$D55),"",IF(Results!$D55&lt;Results!$E55,Results!$C55,IF(Results!$D55=Results!$E55,"DRAW",Results!$F55)))</f>
-        <v/>
+        <v>DRAW</v>
       </c>
       <c r="C55" s="3" t="str">
         <f>IF(ISBLANK(Results!$D55),"",IF(Results!$D55=Results!$E55,Results!$C55,""))</f>
-        <v/>
+        <v xml:space="preserve">PSC Rooney 3/4 Boys </v>
       </c>
       <c r="D55" s="3" t="str">
         <f>IF(ISBLANK(Results!$D55),"",IF(Results!$D55=Results!$E55,Results!F55,""))</f>
-        <v/>
+        <v xml:space="preserve">Dalton Warriors 3/4 Boys  </v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="14" customHeight="1">
       <c r="A56" s="3" t="str">
         <f>IF(ISBLANK(Results!$D56),"",IF(Results!$D56&gt;Results!$E56,Results!$C56,IF(Results!$D56=Results!$E56,"DRAW",Results!$F56)))</f>
-        <v/>
+        <v>DRAW</v>
       </c>
       <c r="B56" s="3" t="str">
         <f>IF(ISBLANK(Results!$D56),"",IF(Results!$D56&lt;Results!$E56,Results!$C56,IF(Results!$D56=Results!$E56,"DRAW",Results!$F56)))</f>
-        <v/>
+        <v>DRAW</v>
       </c>
       <c r="C56" s="3" t="str">
         <f>IF(ISBLANK(Results!$D56),"",IF(Results!$D56=Results!$E56,Results!$C56,""))</f>
-        <v/>
+        <v xml:space="preserve">Wmstwn Wildebeest 3/4 Boys </v>
       </c>
       <c r="D56" s="3" t="str">
         <f>IF(ISBLANK(Results!$D56),"",IF(Results!$D56=Results!$E56,Results!F56,""))</f>
-        <v/>
+        <v xml:space="preserve">Lee 3/4 Boys </v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="14" customHeight="1">
       <c r="A57" s="3" t="str">
         <f>IF(ISBLANK(Results!$D57),"",IF(Results!$D57&gt;Results!$E57,Results!$C57,IF(Results!$D57=Results!$E57,"DRAW",Results!$F57)))</f>
-        <v/>
+        <v>DRAW</v>
       </c>
       <c r="B57" s="3" t="str">
         <f>IF(ISBLANK(Results!$D57),"",IF(Results!$D57&lt;Results!$E57,Results!$C57,IF(Results!$D57=Results!$E57,"DRAW",Results!$F57)))</f>
-        <v/>
+        <v>DRAW</v>
       </c>
       <c r="C57" s="3" t="str">
         <f>IF(ISBLANK(Results!$D57),"",IF(Results!$D57=Results!$E57,Results!$C57,""))</f>
-        <v/>
+        <v xml:space="preserve">Lenox Maroon 3/4 Boys  </v>
       </c>
       <c r="D57" s="3" t="str">
         <f>IF(ISBLANK(Results!$D57),"",IF(Results!$D57=Results!$E57,Results!F57,""))</f>
-        <v/>
+        <v xml:space="preserve">Adams Thunder 3/4 Boys </v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="14" customHeight="1">
       <c r="A58" s="3" t="str">
         <f>IF(ISBLANK(Results!$D50),"",IF(Results!$D50&gt;Results!$E50,Results!$C50,IF(Results!$D50=Results!$E50,"DRAW",Results!$F50)))</f>
-        <v/>
+        <v>DRAW</v>
       </c>
       <c r="B58" s="3" t="str">
         <f>IF(ISBLANK(Results!$D50),"",IF(Results!$D50&lt;Results!$E50,Results!$C50,IF(Results!$D50=Results!$E50,"DRAW",Results!$F50)))</f>
-        <v/>
+        <v>DRAW</v>
       </c>
       <c r="C58" s="3" t="str">
         <f>IF(ISBLANK(Results!$D50),"",IF(Results!$D50=Results!$E50,Results!$C50,""))</f>
-        <v/>
+        <v>BH Revolution 3/4 Boys</v>
       </c>
       <c r="D58" s="3" t="str">
         <f>IF(ISBLANK(Results!$D50),"",IF(Results!$D50=Results!$E50,Results!F50,""))</f>
-        <v/>
+        <v>BH Galaxy 3/4 Boys</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="14" customHeight="1">
       <c r="A59" s="3" t="str">
         <f>IF(ISBLANK(Results!$D51),"",IF(Results!$D51&gt;Results!$E51,Results!$C51,IF(Results!$D51=Results!$E51,"DRAW",Results!$F51)))</f>
-        <v/>
+        <v>DRAW</v>
       </c>
       <c r="B59" s="3" t="str">
         <f>IF(ISBLANK(Results!$D51),"",IF(Results!$D51&lt;Results!$E51,Results!$C51,IF(Results!$D51=Results!$E51,"DRAW",Results!$F51)))</f>
-        <v/>
+        <v>DRAW</v>
       </c>
       <c r="C59" s="3" t="str">
         <f>IF(ISBLANK(Results!$D51),"",IF(Results!$D51=Results!$E51,Results!$C51,""))</f>
-        <v/>
+        <v xml:space="preserve">PSC Messi 3/4 Boys </v>
       </c>
       <c r="D59" s="3" t="str">
         <f>IF(ISBLANK(Results!$D51),"",IF(Results!$D51=Results!$E51,Results!F51,""))</f>
-        <v/>
+        <v xml:space="preserve">Wmstwn Strikers 3/4 Boys </v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="14" customHeight="1">
       <c r="A60" s="3" t="str">
         <f>IF(ISBLANK(Results!$D52),"",IF(Results!$D52&gt;Results!$E52,Results!$C52,IF(Results!$D52=Results!$E52,"DRAW",Results!$F52)))</f>
-        <v/>
+        <v>DRAW</v>
       </c>
       <c r="B60" s="3" t="str">
         <f>IF(ISBLANK(Results!$D52),"",IF(Results!$D52&lt;Results!$E52,Results!$C52,IF(Results!$D52=Results!$E52,"DRAW",Results!$F52)))</f>
-        <v/>
+        <v>DRAW</v>
       </c>
       <c r="C60" s="3" t="str">
         <f>IF(ISBLANK(Results!$D52),"",IF(Results!$D52=Results!$E52,Results!$C52,""))</f>
-        <v/>
+        <v xml:space="preserve">NASC Pioneers 3/4 Boys </v>
       </c>
       <c r="D60" s="3" t="str">
         <f>IF(ISBLANK(Results!$D52),"",IF(Results!$D52=Results!$E52,Results!F52,""))</f>
-        <v/>
+        <v xml:space="preserve">Wmstwn Thunderlizards 3/4 Boys </v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="14" customHeight="1">
       <c r="A61" s="3" t="str">
         <f>IF(ISBLANK(Results!$D53),"",IF(Results!$D53&gt;Results!$E53,Results!$C53,IF(Results!$D53=Results!$E53,"DRAW",Results!$F53)))</f>
-        <v/>
+        <v>DRAW</v>
       </c>
       <c r="B61" s="3" t="str">
         <f>IF(ISBLANK(Results!$D53),"",IF(Results!$D53&lt;Results!$E53,Results!$C53,IF(Results!$D53=Results!$E53,"DRAW",Results!$F53)))</f>
-        <v/>
+        <v>DRAW</v>
       </c>
       <c r="C61" s="3" t="str">
         <f>IF(ISBLANK(Results!$D53),"",IF(Results!$D53=Results!$E53,Results!$C53,""))</f>
-        <v/>
+        <v xml:space="preserve">SB Gold 3/4 Boys  </v>
       </c>
       <c r="D61" s="3" t="str">
         <f>IF(ISBLANK(Results!$D53),"",IF(Results!$D53=Results!$E53,Results!F53,""))</f>
-        <v/>
+        <v xml:space="preserve">Lenox Gold 3/4 Boys  </v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="14" customHeight="1">
       <c r="A62" s="3" t="str">
         <f>IF(ISBLANK(Results!$D54),"",IF(Results!$D54&gt;Results!$E54,Results!$C54,IF(Results!$D54=Results!$E54,"DRAW",Results!$F54)))</f>
-        <v/>
+        <v>DRAW</v>
       </c>
       <c r="B62" s="3" t="str">
         <f>IF(ISBLANK(Results!$D54),"",IF(Results!$D54&lt;Results!$E54,Results!$C54,IF(Results!$D54=Results!$E54,"DRAW",Results!$F54)))</f>
-        <v/>
+        <v>DRAW</v>
       </c>
       <c r="C62" s="3" t="str">
         <f>IF(ISBLANK(Results!$D54),"",IF(Results!$D54=Results!$E54,Results!$C54,""))</f>
-        <v/>
+        <v xml:space="preserve">Lenox White 3/4 Boys  </v>
       </c>
       <c r="D62" s="3" t="str">
         <f>IF(ISBLANK(Results!$D54),"",IF(Results!$D54=Results!$E54,Results!F54,""))</f>
-        <v/>
+        <v xml:space="preserve">Dalton Braves 3/4 Boys  </v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="14" customHeight="1">
       <c r="A63" s="3" t="str">
         <f>IF(ISBLANK(Results!$D55),"",IF(Results!$D55&gt;Results!$E55,Results!$C55,IF(Results!$D55=Results!$E55,"DRAW",Results!$F55)))</f>
-        <v/>
+        <v>DRAW</v>
       </c>
       <c r="B63" s="3" t="str">
         <f>IF(ISBLANK(Results!$D55),"",IF(Results!$D55&lt;Results!$E55,Results!$C55,IF(Results!$D55=Results!$E55,"DRAW",Results!$F55)))</f>
-        <v/>
+        <v>DRAW</v>
       </c>
       <c r="C63" s="3" t="str">
         <f>IF(ISBLANK(Results!$D55),"",IF(Results!$D55=Results!$E55,Results!$C55,""))</f>
-        <v/>
+        <v xml:space="preserve">PSC Rooney 3/4 Boys </v>
       </c>
       <c r="D63" s="3" t="str">
         <f>IF(ISBLANK(Results!$D55),"",IF(Results!$D55=Results!$E55,Results!F55,""))</f>
-        <v/>
+        <v xml:space="preserve">Dalton Warriors 3/4 Boys  </v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="14" customHeight="1">
       <c r="A64" s="3" t="str">
         <f>IF(ISBLANK(Results!$D56),"",IF(Results!$D56&gt;Results!$E56,Results!$C56,IF(Results!$D56=Results!$E56,"DRAW",Results!$F56)))</f>
-        <v/>
+        <v>DRAW</v>
       </c>
       <c r="B64" s="3" t="str">
         <f>IF(ISBLANK(Results!$D56),"",IF(Results!$D56&lt;Results!$E56,Results!$C56,IF(Results!$D56=Results!$E56,"DRAW",Results!$F56)))</f>
-        <v/>
+        <v>DRAW</v>
       </c>
       <c r="C64" s="3" t="str">
         <f>IF(ISBLANK(Results!$D56),"",IF(Results!$D56=Results!$E56,Results!$C56,""))</f>
-        <v/>
+        <v xml:space="preserve">Wmstwn Wildebeest 3/4 Boys </v>
       </c>
       <c r="D64" s="3" t="str">
         <f>IF(ISBLANK(Results!$D56),"",IF(Results!$D56=Results!$E56,Results!F56,""))</f>
-        <v/>
+        <v xml:space="preserve">Lee 3/4 Boys </v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="14" customHeight="1">
       <c r="A65" s="3" t="str">
         <f>IF(ISBLANK(Results!$D57),"",IF(Results!$D57&gt;Results!$E57,Results!$C57,IF(Results!$D57=Results!$E57,"DRAW",Results!$F57)))</f>
-        <v/>
+        <v>DRAW</v>
       </c>
       <c r="B65" s="3" t="str">
         <f>IF(ISBLANK(Results!$D57),"",IF(Results!$D57&lt;Results!$E57,Results!$C57,IF(Results!$D57=Results!$E57,"DRAW",Results!$F57)))</f>
-        <v/>
+        <v>DRAW</v>
       </c>
       <c r="C65" s="3" t="str">
         <f>IF(ISBLANK(Results!$D57),"",IF(Results!$D57=Results!$E57,Results!$C57,""))</f>
-        <v/>
+        <v xml:space="preserve">Lenox Maroon 3/4 Boys  </v>
       </c>
       <c r="D65" s="3" t="str">
         <f>IF(ISBLANK(Results!$D57),"",IF(Results!$D57=Results!$E57,Results!F57,""))</f>
-        <v/>
+        <v xml:space="preserve">Adams Thunder 3/4 Boys </v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="14" customHeight="1">
       <c r="A66" s="3" t="str">
         <f>IF(ISBLANK(Results!$D58),"",IF(Results!$D58&gt;Results!$E58,Results!$C58,IF(Results!$D58=Results!$E58,"DRAW",Results!$F58)))</f>
-        <v/>
+        <v>DRAW</v>
       </c>
       <c r="B66" s="3" t="str">
         <f>IF(ISBLANK(Results!$D58),"",IF(Results!$D58&lt;Results!$E58,Results!$C58,IF(Results!$D58=Results!$E58,"DRAW",Results!$F58)))</f>
-        <v/>
+        <v>DRAW</v>
       </c>
       <c r="C66" s="3" t="str">
         <f>IF(ISBLANK(Results!$D58),"",IF(Results!$D58=Results!$E58,Results!$C58,""))</f>
-        <v/>
+        <v xml:space="preserve">NASC Pioneers 3/4 Boys </v>
       </c>
       <c r="D66" s="3" t="str">
         <f>IF(ISBLANK(Results!$D58),"",IF(Results!$D58=Results!$E58,Results!F58,""))</f>
-        <v/>
+        <v>BH Revolution 3/4 Boys</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="14" customHeight="1">
       <c r="A67" s="3" t="str">
         <f>IF(ISBLANK(Results!$D59),"",IF(Results!$D59&gt;Results!$E59,Results!$C59,IF(Results!$D59=Results!$E59,"DRAW",Results!$F59)))</f>
-        <v/>
+        <v>DRAW</v>
       </c>
       <c r="B67" s="3" t="str">
         <f>IF(ISBLANK(Results!$D59),"",IF(Results!$D59&lt;Results!$E59,Results!$C59,IF(Results!$D59=Results!$E59,"DRAW",Results!$F59)))</f>
-        <v/>
+        <v>DRAW</v>
       </c>
       <c r="C67" s="3" t="str">
         <f>IF(ISBLANK(Results!$D59),"",IF(Results!$D59=Results!$E59,Results!$C59,""))</f>
-        <v/>
+        <v>BH Galaxy 3/4 Boys</v>
       </c>
       <c r="D67" s="3" t="str">
         <f>IF(ISBLANK(Results!$D59),"",IF(Results!$D59=Results!$E59,Results!F59,""))</f>
-        <v/>
+        <v xml:space="preserve">PSC Messi 3/4 Boys </v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="14" customHeight="1">
       <c r="A68" s="3" t="str">
         <f>IF(ISBLANK(Results!$D60),"",IF(Results!$D60&gt;Results!$E60,Results!$C60,IF(Results!$D60=Results!$E60,"DRAW",Results!$F60)))</f>
-        <v/>
+        <v>DRAW</v>
       </c>
       <c r="B68" s="3" t="str">
         <f>IF(ISBLANK(Results!$D60),"",IF(Results!$D60&lt;Results!$E60,Results!$C60,IF(Results!$D60=Results!$E60,"DRAW",Results!$F60)))</f>
-        <v/>
+        <v>DRAW</v>
       </c>
       <c r="C68" s="3" t="str">
         <f>IF(ISBLANK(Results!$D60),"",IF(Results!$D60=Results!$E60,Results!$C60,""))</f>
-        <v/>
+        <v xml:space="preserve">Wmstwn Strikers 3/4 Boys </v>
       </c>
       <c r="D68" s="3" t="str">
         <f>IF(ISBLANK(Results!$D60),"",IF(Results!$D60=Results!$E60,Results!F60,""))</f>
-        <v/>
+        <v xml:space="preserve">Wmstwn Thunderlizards 3/4 Boys </v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="14" customHeight="1">
       <c r="A69" s="3" t="str">
         <f>IF(ISBLANK(Results!$D61),"",IF(Results!$D61&gt;Results!$E61,Results!$C61,IF(Results!$D61=Results!$E61,"DRAW",Results!$F61)))</f>
-        <v/>
+        <v>DRAW</v>
       </c>
       <c r="B69" s="3" t="str">
         <f>IF(ISBLANK(Results!$D61),"",IF(Results!$D61&lt;Results!$E61,Results!$C61,IF(Results!$D61=Results!$E61,"DRAW",Results!$F61)))</f>
-        <v/>
+        <v>DRAW</v>
       </c>
       <c r="C69" s="3" t="str">
         <f>IF(ISBLANK(Results!$D61),"",IF(Results!$D61=Results!$E61,Results!$C61,""))</f>
-        <v/>
+        <v xml:space="preserve">PSC Rooney 3/4 Boys </v>
       </c>
       <c r="D69" s="3" t="str">
         <f>IF(ISBLANK(Results!$D61),"",IF(Results!$D61=Results!$E61,Results!F61,""))</f>
-        <v/>
+        <v xml:space="preserve">SB Gold 3/4 Boys  </v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="14" customHeight="1">
       <c r="A70" s="3" t="str">
         <f>IF(ISBLANK(Results!$D62),"",IF(Results!$D62&gt;Results!$E62,Results!$C62,IF(Results!$D62=Results!$E62,"DRAW",Results!$F62)))</f>
-        <v/>
+        <v>DRAW</v>
       </c>
       <c r="B70" s="3" t="str">
         <f>IF(ISBLANK(Results!$D62),"",IF(Results!$D62&lt;Results!$E62,Results!$C62,IF(Results!$D62=Results!$E62,"DRAW",Results!$F62)))</f>
-        <v/>
+        <v>DRAW</v>
       </c>
       <c r="C70" s="3" t="str">
         <f>IF(ISBLANK(Results!$D62),"",IF(Results!$D62=Results!$E62,Results!$C62,""))</f>
-        <v/>
+        <v xml:space="preserve">Lee 3/4 Boys </v>
       </c>
       <c r="D70" s="3" t="str">
         <f>IF(ISBLANK(Results!$D62),"",IF(Results!$D62=Results!$E62,Results!F62,""))</f>
-        <v/>
+        <v xml:space="preserve">Lenox Gold 3/4 Boys  </v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="14" customHeight="1">
       <c r="A71" s="3" t="str">
         <f>IF(ISBLANK(Results!$D63),"",IF(Results!$D63&gt;Results!$E63,Results!$C63,IF(Results!$D63=Results!$E63,"DRAW",Results!$F63)))</f>
-        <v/>
+        <v>DRAW</v>
       </c>
       <c r="B71" s="3" t="str">
         <f>IF(ISBLANK(Results!$D63),"",IF(Results!$D63&lt;Results!$E63,Results!$C63,IF(Results!$D63=Results!$E63,"DRAW",Results!$F63)))</f>
-        <v/>
+        <v>DRAW</v>
       </c>
       <c r="C71" s="3" t="str">
         <f>IF(ISBLANK(Results!$D63),"",IF(Results!$D63=Results!$E63,Results!$C63,""))</f>
-        <v/>
+        <v xml:space="preserve">Dalton Braves 3/4 Boys  </v>
       </c>
       <c r="D71" s="3" t="str">
         <f>IF(ISBLANK(Results!$D63),"",IF(Results!$D63=Results!$E63,Results!F63,""))</f>
-        <v/>
+        <v xml:space="preserve">Dalton Warriors 3/4 Boys  </v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="14" customHeight="1">
       <c r="A72" s="3" t="str">
         <f>IF(ISBLANK(Results!$D64),"",IF(Results!$D64&gt;Results!$E64,Results!$C64,IF(Results!$D64=Results!$E64,"DRAW",Results!$F64)))</f>
-        <v/>
+        <v>DRAW</v>
       </c>
       <c r="B72" s="3" t="str">
         <f>IF(ISBLANK(Results!$D64),"",IF(Results!$D64&lt;Results!$E64,Results!$C64,IF(Results!$D64=Results!$E64,"DRAW",Results!$F64)))</f>
-        <v/>
+        <v>DRAW</v>
       </c>
       <c r="C72" s="3" t="str">
         <f>IF(ISBLANK(Results!$D64),"",IF(Results!$D64=Results!$E64,Results!$C64,""))</f>
-        <v/>
+        <v xml:space="preserve">Wmstwn Wildebeest 3/4 Boys </v>
       </c>
       <c r="D72" s="3" t="str">
         <f>IF(ISBLANK(Results!$D64),"",IF(Results!$D64=Results!$E64,Results!F64,""))</f>
-        <v/>
+        <v xml:space="preserve">Lenox Maroon 3/4 Boys  </v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="14" customHeight="1">
       <c r="A73" s="3" t="str">
         <f>IF(ISBLANK(Results!$D65),"",IF(Results!$D65&gt;Results!$E65,Results!$C65,IF(Results!$D65=Results!$E65,"DRAW",Results!$F65)))</f>
-        <v/>
+        <v>DRAW</v>
       </c>
       <c r="B73" s="3" t="str">
         <f>IF(ISBLANK(Results!$D65),"",IF(Results!$D65&lt;Results!$E65,Results!$C65,IF(Results!$D65=Results!$E65,"DRAW",Results!$F65)))</f>
-        <v/>
+        <v>DRAW</v>
       </c>
       <c r="C73" s="3" t="str">
         <f>IF(ISBLANK(Results!$D65),"",IF(Results!$D65=Results!$E65,Results!$C65,""))</f>
-        <v/>
+        <v xml:space="preserve">Adams Thunder 3/4 Boys </v>
       </c>
       <c r="D73" s="3" t="str">
         <f>IF(ISBLANK(Results!$D65),"",IF(Results!$D65=Results!$E65,Results!F65,""))</f>
-        <v/>
+        <v xml:space="preserve">Lenox White 3/4 Boys  </v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="14" customHeight="1">
@@ -9942,7 +9945,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="14.75" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="14.75" customHeight="1">
